--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\odoo\spreadsheet\tests\__xlsx__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AF7E1-BB07-416E-B55F-CE934DA012B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C606C4-F84F-45BF-8292-2BBF6330484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="21705" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2211,217 +2211,6 @@
   </cellStyles>
   <dxfs count="44">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2693,25 +2482,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2761,6 +2531,236 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4807,6 +4807,741 @@
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>scatter chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1000-4695-A558-70E3A3698455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17781237"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88853993"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88853993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17781237"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>combo chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1F77B4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="1F77B4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="1F77B4"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-457C-469E-B304-7A21AF960744}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF7F0E"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-457C-469E-B304-7A21AF960744}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="17781237"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88853993"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88853993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17781237"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -4926,7 +5661,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE95-4F98-865F-6E35D6C9378D}"/>
+              <c16:uniqueId val="{00000000-D94B-45A0-8AD6-3E4F4E7665C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5042,7 +5777,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DE95-4F98-865F-6E35D6C9378D}"/>
+              <c16:uniqueId val="{00000001-D94B-45A0-8AD6-3E4F4E7665C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5838,6 +6573,82 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC27214-40A9-4FF9-BB37-40F876B2768B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 6" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5685A00-859E-4641-A529-E7042819F3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6247,7 +7058,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6259,22 +7070,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6669,7 +7480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3FFA98-6851-421C-959C-388F2B66EDF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D5EBC-45F5-4C42-AA75-560DF70B9F2E}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -7076,7 +7887,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7119,7 +7930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B780FB99-17EE-4EC6-9495-0F952AB94F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7A934C-2218-4A12-8B75-EE28D615D774}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7133,15 +7944,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43501D2F-A9B0-48FF-8DF0-12CB4DAF54E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96301BE1-D86D-4D45-870D-85A75D53FC99}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G23" sqref="G23"/>
-      <selection pane="topRight" activeCell="G23" sqref="G23"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection activeCell="H9" sqref="H9"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7151,7 +7962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FD2198-2564-4D41-B915-30691D7E40F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A8834-0E20-4F80-8813-3ACA5527B377}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7170,7 +7981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FD2250-DC4A-49ED-86BD-0294A74D37AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410DDE30-90F0-4479-AC28-0576838C0CFE}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7186,7 +7997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB4250-469A-495C-8211-7D36C3F1DFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630FA18-71FC-4ACD-8379-39A3603D1DD6}">
   <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
@@ -9046,7 +9857,7 @@
       </c>
       <c r="B100" s="20">
         <f ca="1">NOW()</f>
-        <v>45359.413205787037</v>
+        <v>45398.575743402776</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -9736,7 +10547,7 @@
       </c>
       <c r="B144" s="19">
         <f ca="1">TODAY()</f>
-        <v>45359</v>
+        <v>45398</v>
       </c>
       <c r="D144" s="2">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -10050,10 +10861,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10062,7 +10873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B9D0FD-8DC8-4D93-B94A-6AB101FCCDA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE33AE-060F-4630-8DDE-76E5F5CF58F5}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -10153,11 +10964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C120773E-1A0C-4228-98C5-817652C8CC14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF68F2C0-1053-4FB6-BD74-8A11B0CAF123}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10544,7 +11355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF5F2C6-E886-4E2A-B7A1-398EDD6A725D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D919E811-4385-4D35-A19E-3B7E0E659A89}">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10780,7 +11591,7 @@
       </c>
       <c r="B12" s="40">
         <f ca="1">TODAY()</f>
-        <v>45359</v>
+        <v>45398</v>
       </c>
       <c r="C12" s="40">
         <f>DATE(2010,10,2)</f>
@@ -11313,70 +12124,142 @@
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="22" priority="58">
+      <formula>ODD(B15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="aboveAverage" dxfId="20" priority="114"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="43" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="19" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="42" priority="71">
+    <cfRule type="containsBlanks" dxfId="18" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="41" priority="70">
+    <cfRule type="containsErrors" dxfId="17" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="40" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="16" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="39" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="15" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="37" priority="65">
+    <cfRule type="notContainsErrors" dxfId="13" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="36" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="12" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="35" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="11" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="34" priority="58">
-      <formula>ODD(B15)</formula>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="top10" dxfId="10" priority="115" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:C16">
+    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="33" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+  <conditionalFormatting sqref="B18:C18">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
+  <conditionalFormatting sqref="B19:C19">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:C20">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>2</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+      <formula>2</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88E4E898-A83E-4EE8-B4ED-3339A906DC10}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C2002CEC-3733-4955-A6B6-FF982F2050DC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:D7">
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:D14">
+    <cfRule type="uniqueValues" dxfId="0" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -11539,32 +12422,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="30" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="29" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="dataBar" priority="100">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88E4E898-A83E-4EE8-B4ED-3339A906DC10}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="28" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="27" priority="115" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H21:K21">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4Arrows">
@@ -11659,52 +12516,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
-      <formula>2</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="notBetween">
-      <formula>2</formula>
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C25">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C2002CEC-3733-4955-A6B6-FF982F2050DC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
@@ -11731,6 +12542,57 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>B25:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{0776DCAB-3210-41C4-A113-32FD4847A5ED}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H19:J19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="19" id="{367C8C3A-A19C-489B-B02C-135E717D92A5}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H20:J20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{2F0448E0-FD4B-4CC6-8AFB-1FCD78ED3F40}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H31:J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="25" id="{EDB615C5-C26E-42E3-8D7C-CFC96E348794}">
@@ -11790,38 +12652,6 @@
           <xm:sqref>H37:J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{0776DCAB-3210-41C4-A113-32FD4847A5ED}">
-            <x14:iconSet iconSet="3Stars">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H19:J19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{367C8C3A-A19C-489B-B02C-135E717D92A5}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H20:J20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{DD78C548-721C-42F8-BA23-99215A699C4C}">
             <x14:iconSet iconSet="5Boxes">
               <x14:cfvo type="percent">
@@ -11843,25 +12673,6 @@
           </x14:cfRule>
           <xm:sqref>H30:L30</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{2F0448E0-FD4B-4CC6-8AFB-1FCD78ED3F40}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H31:J31</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -11869,10 +12680,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA2AD09-EFB1-4B74-862F-432090DD90CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CCC4B1-5C65-4837-AA26-56CCF06B63BB}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12198,7 +13011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E49991F-68D4-4649-AFDB-79BBFCE497F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9224F2-4D06-4586-886C-E51F5EBCA7B0}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12515,7 +13328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1BCB21-6252-4834-AE7A-48E70B5AD55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12556,7 +13369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B93B36-2628-4853-9774-0EB7977881CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31E21-0350-44E7-AF13-4CA140505B30}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C606C4-F84F-45BF-8292-2BBF6330484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F1A66-FDA3-41D2-8301-AC5DB36FDC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="21705" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="417">
   <si>
     <t>CF =42</t>
   </si>
@@ -1298,12 +1298,15 @@
   </si>
   <si>
     <t>'sheet!'!R[1]C[1]</t>
+  </si>
+  <si>
+    <t>CustomStyle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ hh:mm:ss"/>
@@ -2209,7 +2212,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2765,7 +2782,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{33B8EB55-D8D8-4B00-B5CF-C84A8AC9E775}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF000000"/>
@@ -7058,7 +7080,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7070,26 +7092,36 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="1" showLastColumn="1" showRowStripes="0" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A957E632-0695-4531-8323-5048B676464D}" name="Table2" displayName="Table2" ref="C34:D35" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DC5A2AE6-F19E-430A-B1C3-28F7319B94EE}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{2050F373-1538-4D53-8D8B-FBE687F1DDF5}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7887,7 +7919,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7947,7 +7979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96301BE1-D86D-4D45-870D-85A75D53FC99}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H9" sqref="H9"/>
       <selection pane="topRight" activeCell="H9" sqref="H9"/>
@@ -9857,7 +9889,7 @@
       </c>
       <c r="B100" s="20">
         <f ca="1">NOW()</f>
-        <v>45398.575743402776</v>
+        <v>45398.580923148147</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -10861,10 +10893,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10967,7 +10999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF68F2C0-1053-4FB6-BD74-8A11B0CAF123}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -12125,104 +12157,104 @@
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="22" priority="58">
+    <cfRule type="expression" dxfId="24" priority="58">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="20" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="22" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="19" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="21" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="18" priority="71">
+    <cfRule type="containsBlanks" dxfId="20" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="17" priority="70">
+    <cfRule type="containsErrors" dxfId="19" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="16" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="18" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="15" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="17" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="13" priority="65">
+    <cfRule type="notContainsErrors" dxfId="15" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="12" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="14" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="11" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="13" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="10" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="115" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="8" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
@@ -12256,10 +12288,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="0" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -12681,10 +12713,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CCC4B1-5C65-4837-AA26-56CCF06B63BB}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12994,9 +13026,14 @@
         <v>408</v>
       </c>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="9">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -13006,6 +13043,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13331,7 +13369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\odoo\spreadsheet\tests\__xlsx__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E556DF-B6A9-4914-8E28-82201545992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EAB923-A1B3-42FF-B544-1E3FCDFFEEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,9 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="153" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,8 +45,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1321,7 +1319,7 @@
     <numFmt numFmtId="169" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="170" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2198,6 +2196,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2210,165 +2209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2775,6 +2622,157 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -2818,7 +2816,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2874,7 +2872,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3196,7 +3194,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3229,7 +3227,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -3300,7 +3298,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3333,7 +3331,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -3377,7 +3375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3405,7 +3403,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3419,7 +3417,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3732,7 +3730,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -3794,7 +3792,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -3822,7 +3820,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3851,7 +3849,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -4440,7 +4438,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4469,7 +4467,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4806,7 +4804,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4835,7 +4833,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -5018,7 +5016,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -5077,7 +5075,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -5105,7 +5103,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5134,7 +5132,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5451,7 +5449,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -5513,7 +5511,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -5541,7 +5539,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5570,7 +5568,412 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>radar chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1F77B4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="1F77B4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3B9-4952-B105-568BDB7EC1F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF7F0E"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3B9-4952-B105-568BDB7EC1F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="17781237"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88853993"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88853993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17781237"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -5868,7 +6271,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="344680958"/>
@@ -5944,7 +6347,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="998664793"/>
@@ -5967,7 +6370,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6684,6 +7087,44 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 6" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B20B98-FA84-44C9-8DBB-5852658E9967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6943,7 +7384,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7093,7 +7534,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7105,22 +7546,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7230,7 +7671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7531,20 +7972,20 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="26" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="26" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7553,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75">
+    <row r="2" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
@@ -7566,25 +8007,25 @@
       <c r="H2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="110"/>
+      <c r="I2" s="106"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="106">
+      <c r="K3" s="107">
         <v>5</v>
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -7597,50 +8038,50 @@
       <c r="G4" s="2">
         <v>9</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="107"/>
+      <c r="K4" s="108"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
         <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="107"/>
+      <c r="K5" s="108"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="2">
         <v>22</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="107"/>
+      <c r="K6" s="108"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="107"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G8" s="2">
         <v>30</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="108"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -7650,7 +8091,7 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -7659,13 +8100,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -7674,13 +8115,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G13" s="2">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
@@ -7689,32 +8130,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -7728,7 +8169,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
@@ -7738,7 +8179,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -7752,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -7763,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="17">
         <v>10.122999999999999</v>
       </c>
@@ -7774,7 +8215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -7788,7 +8229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -7805,7 +8246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -7822,7 +8263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -7839,7 +8280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -7856,7 +8297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -7873,7 +8314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -7890,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7907,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -7918,7 +8359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -7935,7 +8376,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7985,7 +8426,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7997,12 +8438,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8016,10 +8457,10 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1"/>
-    <col min="2" max="26" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" customWidth="1"/>
+    <col min="2" max="26" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8036,7 +8477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8054,12 +8495,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="13.7109375" customWidth="1"/>
+    <col min="1" max="26" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -8094,7 +8535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -8140,7 +8581,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -8186,7 +8627,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -8232,7 +8673,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -8278,7 +8719,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -8324,7 +8765,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -8358,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -8392,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -8423,7 +8864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -8439,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -8458,7 +8899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -8489,7 +8930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -8520,7 +8961,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -8536,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -8552,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -8568,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -8584,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -8600,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -8616,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -8632,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -8648,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -8664,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
@@ -8680,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -8697,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -8713,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -8729,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -8745,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -8762,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -8778,7 +9219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -8794,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -8810,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -8826,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -8842,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -8858,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -8874,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
@@ -8890,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -8906,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -8923,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -8939,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>95</v>
       </c>
@@ -8955,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -8971,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -8987,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -9003,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -9019,7 +9460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -9035,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -9051,7 +9492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -9067,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -9083,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -9099,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -9116,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
@@ -9133,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -9149,7 +9590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -9165,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
@@ -9181,7 +9622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -9197,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -9213,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -9229,7 +9670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -9245,7 +9686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -9261,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -9277,7 +9718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -9293,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -9309,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -9325,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>119</v>
       </c>
@@ -9341,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
@@ -9357,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -9373,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -9389,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
@@ -9405,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>125</v>
       </c>
@@ -9421,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>127</v>
       </c>
@@ -9437,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
@@ -9453,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -9469,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
@@ -9485,7 +9926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
@@ -9501,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>133</v>
       </c>
@@ -9517,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
@@ -9533,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -9549,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
@@ -9565,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -9581,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>138</v>
       </c>
@@ -9597,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>139</v>
       </c>
@@ -9613,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>141</v>
       </c>
@@ -9629,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
@@ -9645,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>143</v>
       </c>
@@ -9661,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>144</v>
       </c>
@@ -9677,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>146</v>
       </c>
@@ -9693,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>147</v>
       </c>
@@ -9709,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>148</v>
       </c>
@@ -9725,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>149</v>
       </c>
@@ -9741,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>150</v>
       </c>
@@ -9757,7 +10198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>151</v>
       </c>
@@ -9773,7 +10214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>152</v>
       </c>
@@ -9789,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>153</v>
       </c>
@@ -9805,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>154</v>
       </c>
@@ -9821,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
@@ -9837,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>156</v>
       </c>
@@ -9853,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>157</v>
       </c>
@@ -9869,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>158</v>
       </c>
@@ -9885,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>159</v>
       </c>
@@ -9901,20 +10342,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="20">
         <f ca="1">NOW()</f>
-        <v>45526.511599421297</v>
+        <v>45538.429115162035</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>161</v>
       </c>
@@ -9930,7 +10371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>162</v>
       </c>
@@ -9946,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>163</v>
       </c>
@@ -9962,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>164</v>
       </c>
@@ -9978,7 +10419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>165</v>
       </c>
@@ -9994,7 +10435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>166</v>
       </c>
@@ -10010,7 +10451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>167</v>
       </c>
@@ -10026,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>168</v>
       </c>
@@ -10042,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>169</v>
       </c>
@@ -10058,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>170</v>
       </c>
@@ -10074,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>171</v>
       </c>
@@ -10090,12 +10531,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>172</v>
       </c>
@@ -10111,7 +10552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>173</v>
       </c>
@@ -10127,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>175</v>
       </c>
@@ -10143,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>177</v>
       </c>
@@ -10159,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>178</v>
       </c>
@@ -10175,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>179</v>
       </c>
@@ -10191,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>180</v>
       </c>
@@ -10207,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>181</v>
       </c>
@@ -10223,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>182</v>
       </c>
@@ -10239,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>183</v>
       </c>
@@ -10255,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>184</v>
       </c>
@@ -10271,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>185</v>
       </c>
@@ -10287,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>186</v>
       </c>
@@ -10303,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>187</v>
       </c>
@@ -10319,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>188</v>
       </c>
@@ -10335,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>189</v>
       </c>
@@ -10351,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>190</v>
       </c>
@@ -10367,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>191</v>
       </c>
@@ -10383,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>192</v>
       </c>
@@ -10399,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>193</v>
       </c>
@@ -10415,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>194</v>
       </c>
@@ -10431,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>195</v>
       </c>
@@ -10447,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>196</v>
       </c>
@@ -10463,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>198</v>
       </c>
@@ -10479,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>199</v>
       </c>
@@ -10495,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>200</v>
       </c>
@@ -10511,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>201</v>
       </c>
@@ -10527,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>202</v>
       </c>
@@ -10543,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>203</v>
       </c>
@@ -10559,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>205</v>
       </c>
@@ -10575,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>206</v>
       </c>
@@ -10591,20 +11032,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="19">
         <f ca="1">TODAY()</f>
-        <v>45526</v>
+        <v>45538</v>
       </c>
       <c r="D144" s="2">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>208</v>
       </c>
@@ -10620,7 +11061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>210</v>
       </c>
@@ -10636,7 +11077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>211</v>
       </c>
@@ -10652,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>213</v>
       </c>
@@ -10668,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>214</v>
       </c>
@@ -10684,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>215</v>
       </c>
@@ -10700,7 +11141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>216</v>
       </c>
@@ -10716,7 +11157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>217</v>
       </c>
@@ -10732,7 +11173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>218</v>
       </c>
@@ -10748,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>219</v>
       </c>
@@ -10765,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>220</v>
       </c>
@@ -10781,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>221</v>
       </c>
@@ -10797,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>222</v>
       </c>
@@ -10813,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>223</v>
       </c>
@@ -10829,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>224</v>
       </c>
@@ -10845,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>225</v>
       </c>
@@ -10861,7 +11302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>226</v>
       </c>
@@ -10877,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>227</v>
       </c>
@@ -10893,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>229</v>
       </c>
@@ -10911,10 +11352,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10934,27 +11375,27 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" outlineLevel="1"/>
-    <col min="11" max="11" width="9.140625" outlineLevel="1" collapsed="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" outlineLevel="1"/>
+    <col min="11" max="11" width="9.109375" outlineLevel="1" collapsed="1"/>
     <col min="12" max="14" width="0" hidden="1" outlineLevel="2"/>
-    <col min="15" max="18" width="9.140625" outlineLevel="1"/>
+    <col min="15" max="18" width="9.109375" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="109"/>
+      <c r="E1" s="110"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -10962,19 +11403,19 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D3" s="86" t="s">
         <v>235</v>
       </c>
@@ -10982,25 +11423,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1"/>
-    <row r="11" spans="1:8" outlineLevel="1"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
-    <row r="16" spans="1:8" outlineLevel="1"/>
-    <row r="17" outlineLevel="1"/>
-    <row r="18" outlineLevel="1"/>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="17" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="18" outlineLevel="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -11022,14 +11463,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1">
+    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>239</v>
       </c>
@@ -11051,7 +11492,7 @@
       </c>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>245</v>
       </c>
@@ -11077,7 +11518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>252</v>
       </c>
@@ -11100,7 +11541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A4" s="43" t="s">
         <v>256</v>
       </c>
@@ -11126,7 +11567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>262</v>
       </c>
@@ -11146,7 +11587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>266</v>
       </c>
@@ -11169,7 +11610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>271</v>
       </c>
@@ -11189,7 +11630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
         <v>275</v>
       </c>
@@ -11212,7 +11653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>280</v>
       </c>
@@ -11229,7 +11670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>283</v>
       </c>
@@ -11237,7 +11678,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1">
+    <row r="11" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>285</v>
       </c>
@@ -11246,7 +11687,7 @@
       </c>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>287</v>
       </c>
@@ -11260,7 +11701,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
         <v>290</v>
       </c>
@@ -11271,7 +11712,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="53" t="s">
         <v>291</v>
       </c>
@@ -11285,7 +11726,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="54" t="s">
         <v>293</v>
       </c>
@@ -11296,7 +11737,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="55" t="s">
         <v>294</v>
       </c>
@@ -11310,12 +11751,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1">
+    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1">
+    <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="75" t="s">
         <v>297</v>
       </c>
@@ -11327,7 +11768,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1">
+    <row r="19" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="76" t="s">
         <v>300</v>
       </c>
@@ -11338,7 +11779,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1">
+    <row r="20" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="77" t="s">
         <v>303</v>
       </c>
@@ -11352,12 +11793,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1">
+    <row r="21" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1">
+    <row r="22" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="79" t="s">
         <v>307</v>
       </c>
@@ -11366,13 +11807,13 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1">
+    <row r="23" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="80" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="81" t="s">
         <v>310</v>
       </c>
@@ -11381,20 +11822,20 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="68" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="89" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="88" t="s">
         <v>314</v>
       </c>
@@ -11413,13 +11854,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>315</v>
       </c>
@@ -11436,7 +11877,7 @@
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>319</v>
       </c>
@@ -11459,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>321</v>
       </c>
@@ -11482,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>325</v>
       </c>
@@ -11502,7 +11943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>328</v>
       </c>
@@ -11526,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>330</v>
       </c>
@@ -11549,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>333</v>
       </c>
@@ -11575,7 +12016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>337</v>
       </c>
@@ -11586,7 +12027,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>339</v>
       </c>
@@ -11595,7 +12036,7 @@
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1">
+    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>340</v>
       </c>
@@ -11613,7 +12054,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>342</v>
       </c>
@@ -11636,13 +12077,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="40">
         <f ca="1">TODAY()</f>
-        <v>45526</v>
+        <v>45538</v>
       </c>
       <c r="C12" s="40">
         <f>DATE(2010,10,2)</f>
@@ -11661,7 +12102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>346</v>
       </c>
@@ -11684,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>348</v>
       </c>
@@ -11710,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>350</v>
       </c>
@@ -11730,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>352</v>
       </c>
@@ -11753,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>354</v>
       </c>
@@ -11776,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>356</v>
       </c>
@@ -11799,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>358</v>
       </c>
@@ -11822,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>360</v>
       </c>
@@ -11845,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>362</v>
       </c>
@@ -11871,7 +12312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>364</v>
       </c>
@@ -11897,7 +12338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>366</v>
       </c>
@@ -11923,7 +12364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G24" s="35" t="s">
         <v>368</v>
       </c>
@@ -11940,7 +12381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>369</v>
       </c>
@@ -11966,7 +12407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G26" s="35" t="s">
         <v>371</v>
       </c>
@@ -11986,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>372</v>
       </c>
@@ -12012,7 +12453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G28" s="35" t="s">
         <v>374</v>
       </c>
@@ -12032,7 +12473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G29" s="35" t="s">
         <v>375</v>
       </c>
@@ -12052,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G30" s="35" t="s">
         <v>376</v>
       </c>
@@ -12072,7 +12513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
+    <row r="31" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="36" t="s">
         <v>377</v>
       </c>
@@ -12086,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G32" s="35" t="s">
         <v>378</v>
       </c>
@@ -12100,7 +12541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" s="35" t="s">
         <v>379</v>
       </c>
@@ -12114,7 +12555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" s="35" t="s">
         <v>380</v>
       </c>
@@ -12128,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" s="35" t="s">
         <v>381</v>
       </c>
@@ -12142,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" s="35" t="s">
         <v>382</v>
       </c>
@@ -12156,7 +12597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" s="35" t="s">
         <v>383</v>
       </c>
@@ -12170,110 +12611,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G39" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="40" priority="58">
+    <cfRule type="expression" dxfId="22" priority="58">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="20" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="19" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="36" priority="71">
+    <cfRule type="containsBlanks" dxfId="18" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="35" priority="70">
+    <cfRule type="containsErrors" dxfId="17" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="16" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="15" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="31" priority="65">
+    <cfRule type="notContainsErrors" dxfId="13" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="12" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="11" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="115" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
@@ -12307,10 +12748,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -12738,24 +13179,24 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
@@ -12781,7 +13222,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
@@ -12812,7 +13253,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
@@ -12843,7 +13284,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>391</v>
       </c>
@@ -12876,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -12887,7 +13328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>3</v>
       </c>
@@ -12895,7 +13336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>393</v>
       </c>
@@ -12906,7 +13347,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>3</v>
       </c>
@@ -12914,7 +13355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>396</v>
       </c>
@@ -12925,7 +13366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>3</v>
       </c>
@@ -12933,7 +13374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>397</v>
       </c>
@@ -12944,7 +13385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>3</v>
       </c>
@@ -12952,7 +13393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>398</v>
       </c>
@@ -12963,7 +13404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>3</v>
       </c>
@@ -12971,7 +13412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>399</v>
       </c>
@@ -12982,7 +13423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>3</v>
       </c>
@@ -12990,7 +13431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>400</v>
       </c>
@@ -13001,7 +13442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>3</v>
       </c>
@@ -13009,7 +13450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -13018,7 +13459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>401</v>
       </c>
@@ -13029,7 +13470,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>404</v>
       </c>
@@ -13037,7 +13478,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>405</v>
       </c>
@@ -13045,7 +13486,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>406</v>
       </c>
@@ -13075,28 +13516,28 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>407</v>
       </c>
@@ -13106,7 +13547,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13114,7 +13555,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="90" t="s">
@@ -13124,7 +13565,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="90" t="s">
@@ -13158,7 +13599,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="91" t="s">
@@ -13171,7 +13612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="92">
@@ -13184,7 +13625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="91" t="s">
@@ -13197,7 +13638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="92">
@@ -13210,7 +13651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="91" t="s">
@@ -13223,7 +13664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="92">
@@ -13236,7 +13677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="91" t="s">
         <v>44</v>
       </c>
@@ -13247,7 +13688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="92">
         <v>23000</v>
       </c>
@@ -13258,7 +13699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="91" t="s">
         <v>50</v>
       </c>
@@ -13269,7 +13710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="92">
         <v>2</v>
       </c>
@@ -13280,7 +13721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="91" t="s">
         <v>48</v>
       </c>
@@ -13291,7 +13732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="92">
         <v>50024</v>
       </c>
@@ -13302,7 +13743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="91" t="s">
         <v>53</v>
       </c>
@@ -13313,7 +13754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="92">
         <v>189576</v>
       </c>
@@ -13324,7 +13765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="91" t="s">
         <v>57</v>
       </c>
@@ -13335,7 +13776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="92">
         <v>5000</v>
       </c>
@@ -13346,7 +13787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="91" t="s">
         <v>411</v>
       </c>
@@ -13388,33 +13829,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1"/>
-    <col min="2" max="26" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" customWidth="1"/>
+    <col min="2" max="26" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>413</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -13433,9 +13874,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="38.25">
+    <row r="1" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A1" s="100" t="s">
         <v>416</v>
       </c>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F1A66-FDA3-41D2-8301-AC5DB36FDC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82EC8D04-FB30-4625-805F-DD659B4B146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,14 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="828" r:id="rId15"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -42,6 +45,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -171,6 +176,9 @@
     <t>Rank (lower the better)</t>
   </si>
   <si>
+    <t>Fixed Refs</t>
+  </si>
+  <si>
     <t>ABS</t>
   </si>
   <si>
@@ -729,10 +737,271 @@
     <t>DELTA</t>
   </si>
   <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>'sheet!'!R[1]C[1]</t>
+  </si>
+  <si>
+    <t>DATEDIF</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>hidden col</t>
+  </si>
+  <si>
+    <t>merge 2x2</t>
+  </si>
+  <si>
+    <t>colSize 100</t>
+  </si>
+  <si>
+    <t>External Reference:</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>sheetLink</t>
+  </si>
+  <si>
+    <t>hidden row</t>
+  </si>
+  <si>
+    <t>rowSize 100</t>
+  </si>
+  <si>
+    <t>Fill Patterns:</t>
+  </si>
+  <si>
+    <t>Borders:</t>
+  </si>
+  <si>
+    <t>Horizontal alignments:</t>
+  </si>
+  <si>
+    <t>Font Styles:</t>
+  </si>
+  <si>
+    <t>Fonts:</t>
+  </si>
+  <si>
+    <t>Formats:</t>
+  </si>
+  <si>
+    <t>darkGray</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
     <t>a b</t>
   </si>
   <si>
-    <t>Fixed Refs</t>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Arial</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>mediumGray</t>
+  </si>
+  <si>
+    <t>Italic</t>
+  </si>
+  <si>
+    <t>Calibri</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>lightGray</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>Bold</t>
+  </si>
+  <si>
+    <t>Comic sans</t>
+  </si>
+  <si>
+    <t>m/d/yyyy</t>
+  </si>
+  <si>
+    <t>gray0625</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>Striked</t>
+  </si>
+  <si>
+    <t>#,##0.00[$€]</t>
+  </si>
+  <si>
+    <t>darkHorizontal</t>
+  </si>
+  <si>
+    <t>dotted</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>Underlined</t>
+  </si>
+  <si>
+    <t>[$$]#,##0.000</t>
+  </si>
+  <si>
+    <t>darkVertical</t>
+  </si>
+  <si>
+    <t>justify</t>
+  </si>
+  <si>
+    <t>size12</t>
+  </si>
+  <si>
+    <t>[$₪]#,##0</t>
+  </si>
+  <si>
+    <t>darkDown</t>
+  </si>
+  <si>
+    <t>dashDotDot</t>
+  </si>
+  <si>
+    <t>centerContinuous</t>
+  </si>
+  <si>
+    <t>size16</t>
+  </si>
+  <si>
+    <t>#,##0[$ EUR €]</t>
+  </si>
+  <si>
+    <t>darkUp</t>
+  </si>
+  <si>
+    <t>distributed</t>
+  </si>
+  <si>
+    <t>not supported: multiple escaped sequences</t>
+  </si>
+  <si>
+    <t>darkGrid</t>
+  </si>
+  <si>
+    <t>dashDot</t>
+  </si>
+  <si>
+    <t>darkTrellis</t>
+  </si>
+  <si>
+    <t>Vertical alignments:</t>
+  </si>
+  <si>
+    <t>lightHorizontal</t>
+  </si>
+  <si>
+    <t>dashed</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>lightVertical</t>
+  </si>
+  <si>
+    <t>lightDown</t>
+  </si>
+  <si>
+    <t>mediumDashDotDot</t>
+  </si>
+  <si>
+    <t>lightUp</t>
+  </si>
+  <si>
+    <t>lightGrid</t>
+  </si>
+  <si>
+    <t>slantDashDot</t>
+  </si>
+  <si>
+    <t>lightTrellis</t>
+  </si>
+  <si>
+    <t>grad 2 colors</t>
+  </si>
+  <si>
+    <t>mediumDashDot</t>
+  </si>
+  <si>
+    <t>Wrap text:</t>
+  </si>
+  <si>
+    <t>grad horizontal</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>this is a very long text to wrap</t>
+  </si>
+  <si>
+    <t>grad vertical</t>
+  </si>
+  <si>
+    <t>mediumDashed</t>
+  </si>
+  <si>
+    <t>wrap</t>
+  </si>
+  <si>
+    <t>grad diag up</t>
+  </si>
+  <si>
+    <t>grad diag down</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>grad from corner</t>
+  </si>
+  <si>
+    <t>grad from center</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>thick #ff0000</t>
+  </si>
+  <si>
+    <t>diagonal</t>
+  </si>
+  <si>
+    <t>Conditional Formats:</t>
   </si>
   <si>
     <t>Highlighted</t>
@@ -741,291 +1010,189 @@
     <t>Not Highlighted</t>
   </si>
   <si>
+    <t>Color Scales:</t>
+  </si>
+  <si>
+    <t>aboveAverage</t>
+  </si>
+  <si>
+    <t>2 colors max</t>
+  </si>
+  <si>
+    <t>beginsWith</t>
+  </si>
+  <si>
+    <t>rule text</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>3 Colors max</t>
+  </si>
+  <si>
+    <t>containsBlanks</t>
+  </si>
+  <si>
     <t>not blank</t>
   </si>
   <si>
+    <t>2 Colors num</t>
+  </si>
+  <si>
+    <t>containsErrors</t>
+  </si>
+  <si>
+    <t>2 colors percent</t>
+  </si>
+  <si>
+    <t>containsText</t>
+  </si>
+  <si>
+    <t>text rule text</t>
+  </si>
+  <si>
+    <t>2 colors percentile</t>
+  </si>
+  <si>
+    <t>duplicateValues</t>
+  </si>
+  <si>
     <t>aa</t>
   </si>
   <si>
     <t>bb</t>
   </si>
   <si>
-    <t>text</t>
+    <t>2 colors formula</t>
+  </si>
+  <si>
+    <t>endsWith</t>
   </si>
   <si>
     <t>text rule</t>
   </si>
   <si>
-    <t>text rule text</t>
-  </si>
-  <si>
-    <t>rule text</t>
+    <t>notContainsBlanks</t>
+  </si>
+  <si>
+    <t>notContainsErrors</t>
+  </si>
+  <si>
+    <t>Icon Sets:</t>
+  </si>
+  <si>
+    <t>notContainsText</t>
+  </si>
+  <si>
+    <t>3Arrows percent</t>
+  </si>
+  <si>
+    <t>timePeriod</t>
+  </si>
+  <si>
+    <t>3ArrowsGray num</t>
+  </si>
+  <si>
+    <t>top10</t>
+  </si>
+  <si>
+    <t>3Flags percentile</t>
+  </si>
+  <si>
+    <t>uniqueValues</t>
+  </si>
+  <si>
+    <t>3TrafficLights1 formula</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>3TrafficLights2</t>
+  </si>
+  <si>
+    <t>cellIs equal</t>
+  </si>
+  <si>
+    <t>3Signs</t>
+  </si>
+  <si>
+    <t>cellIs notEqual</t>
+  </si>
+  <si>
+    <t>3Symbols</t>
+  </si>
+  <si>
+    <t>cellIs greaterThan</t>
+  </si>
+  <si>
+    <t>3Symbols2</t>
+  </si>
+  <si>
+    <t>cellIs greaterThanOrEqual</t>
+  </si>
+  <si>
+    <t>3Stars</t>
+  </si>
+  <si>
+    <t>cellIs lessThan</t>
+  </si>
+  <si>
+    <t>3Triangles</t>
+  </si>
+  <si>
+    <t>cellIs lessThanOrEqual</t>
+  </si>
+  <si>
+    <t>4Arrows</t>
+  </si>
+  <si>
+    <t>cellIs between</t>
+  </si>
+  <si>
+    <t>4ArrowsGray</t>
+  </si>
+  <si>
+    <t>cellIs notBetween</t>
+  </si>
+  <si>
+    <t>4RedToBlack</t>
+  </si>
+  <si>
+    <t>4Rating</t>
+  </si>
+  <si>
+    <t>dataBar</t>
+  </si>
+  <si>
+    <t>4TrafficLights</t>
+  </si>
+  <si>
+    <t>5Arrows</t>
   </si>
   <si>
     <t>Style of CF</t>
   </si>
   <si>
-    <t>2 colors formula</t>
-  </si>
-  <si>
-    <t>darkGray</t>
-  </si>
-  <si>
-    <t>mediumGray</t>
-  </si>
-  <si>
-    <t>lightGray</t>
-  </si>
-  <si>
-    <t>gray0625</t>
-  </si>
-  <si>
-    <t>darkHorizontal</t>
-  </si>
-  <si>
-    <t>darkVertical</t>
-  </si>
-  <si>
-    <t>darkDown</t>
-  </si>
-  <si>
-    <t>darkUp</t>
-  </si>
-  <si>
-    <t>darkGrid</t>
-  </si>
-  <si>
-    <t>darkTrellis</t>
-  </si>
-  <si>
-    <t>lightHorizontal</t>
-  </si>
-  <si>
-    <t>lightVertical</t>
-  </si>
-  <si>
-    <t>lightDown</t>
-  </si>
-  <si>
-    <t>lightUp</t>
-  </si>
-  <si>
-    <t>lightGrid</t>
-  </si>
-  <si>
-    <t>lightTrellis</t>
-  </si>
-  <si>
-    <t>grad 2 colors</t>
-  </si>
-  <si>
-    <t>grad horizontal</t>
-  </si>
-  <si>
-    <t>grad vertical</t>
-  </si>
-  <si>
-    <t>grad diag up</t>
-  </si>
-  <si>
-    <t>grad diag down</t>
-  </si>
-  <si>
-    <t>grad from center</t>
-  </si>
-  <si>
-    <t>grad from corner</t>
-  </si>
-  <si>
-    <t>hair</t>
-  </si>
-  <si>
-    <t>dotted</t>
-  </si>
-  <si>
-    <t>dashDotDot</t>
-  </si>
-  <si>
-    <t>dashDot</t>
-  </si>
-  <si>
-    <t>dashed</t>
-  </si>
-  <si>
-    <t>mediumDashDotDot</t>
-  </si>
-  <si>
-    <t>slantDashDot</t>
-  </si>
-  <si>
-    <t>mediumDashDot</t>
-  </si>
-  <si>
-    <t>mediumDashed</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>fill</t>
-  </si>
-  <si>
-    <t>justify</t>
-  </si>
-  <si>
-    <t>centerContinuous</t>
-  </si>
-  <si>
-    <t>distributed</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>3TrafficLights2</t>
-  </si>
-  <si>
-    <t>3Signs</t>
-  </si>
-  <si>
-    <t>3Symbols</t>
-  </si>
-  <si>
-    <t>3Symbols2</t>
+    <t>5ArrowsGray</t>
+  </si>
+  <si>
+    <t>5Rating</t>
+  </si>
+  <si>
+    <t>5Quarters</t>
+  </si>
+  <si>
+    <t>5Boxes</t>
+  </si>
+  <si>
+    <t>NoIcons</t>
   </si>
   <si>
     <t>Reverse</t>
   </si>
   <si>
-    <t>3Stars</t>
-  </si>
-  <si>
-    <t>3Triangles</t>
-  </si>
-  <si>
-    <t>4Arrows</t>
-  </si>
-  <si>
-    <t>4ArrowsGray</t>
-  </si>
-  <si>
-    <t>4RedToBlack</t>
-  </si>
-  <si>
-    <t>4Rating</t>
-  </si>
-  <si>
-    <t>4TrafficLights</t>
-  </si>
-  <si>
-    <t>5Arrows</t>
-  </si>
-  <si>
-    <t>5ArrowsGray</t>
-  </si>
-  <si>
-    <t>5Rating</t>
-  </si>
-  <si>
-    <t>5Quarters</t>
-  </si>
-  <si>
-    <t>5Boxes</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Italic</t>
-  </si>
-  <si>
-    <t>Bold</t>
-  </si>
-  <si>
-    <t>Striked</t>
-  </si>
-  <si>
-    <t>Underlined</t>
-  </si>
-  <si>
-    <t>Fill Patterns:</t>
-  </si>
-  <si>
-    <t>Borders:</t>
-  </si>
-  <si>
-    <t>Horizontal alignments:</t>
-  </si>
-  <si>
-    <t>Vertical alignments:</t>
-  </si>
-  <si>
-    <t>Font Styles:</t>
-  </si>
-  <si>
-    <t>Fonts:</t>
-  </si>
-  <si>
-    <t>size12</t>
-  </si>
-  <si>
-    <t>size16</t>
-  </si>
-  <si>
-    <t>Arial</t>
-  </si>
-  <si>
-    <t>2 colors max</t>
-  </si>
-  <si>
-    <t>3 Colors max</t>
-  </si>
-  <si>
-    <t>2 Colors num</t>
-  </si>
-  <si>
-    <t>2 colors percentile</t>
-  </si>
-  <si>
-    <t>2 colors percent</t>
-  </si>
-  <si>
-    <t>Color Scales:</t>
-  </si>
-  <si>
-    <t>Icon Sets:</t>
-  </si>
-  <si>
-    <t>3Arrows percent</t>
-  </si>
-  <si>
-    <t>3Flags percentile</t>
-  </si>
-  <si>
-    <t>3TrafficLights1 formula</t>
-  </si>
-  <si>
-    <t>3ArrowsGray num</t>
-  </si>
-  <si>
-    <t>NoIcons</t>
-  </si>
-  <si>
     <t>ShowOnlyIcon</t>
   </si>
   <si>
@@ -1041,163 +1208,82 @@
     <t>1Icon</t>
   </si>
   <si>
-    <t>aboveAverage</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t>cellIs between</t>
-  </si>
-  <si>
-    <t>cellIs notBetween</t>
-  </si>
-  <si>
-    <t>dataBar</t>
-  </si>
-  <si>
-    <t>top10</t>
-  </si>
-  <si>
-    <t>uniqueValues</t>
-  </si>
-  <si>
-    <t>duplicateValues</t>
-  </si>
-  <si>
-    <t>containsText</t>
-  </si>
-  <si>
-    <t>notContainsText</t>
-  </si>
-  <si>
-    <t>beginsWith</t>
-  </si>
-  <si>
-    <t>endsWith</t>
-  </si>
-  <si>
-    <t>containsBlanks</t>
-  </si>
-  <si>
-    <t>notContainsBlanks</t>
-  </si>
-  <si>
-    <t>containsErrors</t>
-  </si>
-  <si>
-    <t>notContainsErrors</t>
-  </si>
-  <si>
-    <t>timePeriod</t>
-  </si>
-  <si>
-    <t>Conditional Formats:</t>
-  </si>
-  <si>
-    <t>cellIs greaterThan</t>
-  </si>
-  <si>
-    <t>cellIs greaterThanOrEqual</t>
-  </si>
-  <si>
-    <t>cellIs lessThan</t>
-  </si>
-  <si>
-    <t>cellIs lessThanOrEqual</t>
-  </si>
-  <si>
-    <t>cellIs equal</t>
-  </si>
-  <si>
-    <t>cellIs notEqual</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>hidden col</t>
-  </si>
-  <si>
-    <t>hidden row</t>
-  </si>
-  <si>
-    <t>hyperlink</t>
-  </si>
-  <si>
-    <t>merge 2x2</t>
-  </si>
-  <si>
-    <t>colSize 100</t>
-  </si>
-  <si>
-    <t>rowSize 100</t>
+    <t>Table C3:J6</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Rank+Age =E4+D4</t>
+  </si>
+  <si>
+    <t>Data =SUM(E4:E5)</t>
+  </si>
+  <si>
+    <t>All =SUM(E3:E6)</t>
+  </si>
+  <si>
+    <t>Totals =E6</t>
+  </si>
+  <si>
+    <t>Headers =E3</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
+    <t>BasicTable</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Rank+Age =E4+D4</t>
-  </si>
-  <si>
-    <t>Table C3:J6</t>
-  </si>
-  <si>
-    <t>Data =SUM(E4:E5)</t>
-  </si>
-  <si>
-    <t>All =SUM(E3:E6)</t>
-  </si>
-  <si>
-    <t>Totals =E6</t>
-  </si>
-  <si>
-    <t>Headers =E3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Header</t>
-  </si>
-  <si>
     <t>HighlightFirstCol</t>
   </si>
   <si>
     <t>HighlightLastCol</t>
   </si>
   <si>
+    <t>BandedRows</t>
+  </si>
+  <si>
+    <t>BandedCols</t>
+  </si>
+  <si>
     <t>TotalRow</t>
   </si>
   <si>
-    <t>BandedRows</t>
-  </si>
-  <si>
-    <t>BandedCols</t>
-  </si>
-  <si>
-    <t>BasicTable</t>
-  </si>
-  <si>
-    <t>diagonal</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>thick #ff0000</t>
-  </si>
-  <si>
-    <t>Calibri</t>
-  </si>
-  <si>
-    <t>Comic sans</t>
+    <t>TableWithFilter</t>
+  </si>
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>NotHidden</t>
+  </si>
+  <si>
+    <t>CustomStyle</t>
+  </si>
+  <si>
+    <t>pivot C3:L21</t>
+  </si>
+  <si>
+    <t>Sum of Age</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -1206,15 +1292,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of Age</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>pivot C3:L21</t>
-  </si>
-  <si>
     <t>{"title":"line chart", "type":"line", "zone":"C5:G18", "color":"#CECECE", "dataset":"Sheet1!B27:B35 Sheet1!C27:C35", "labels":"Sheet1!A27:A35"}</t>
   </si>
   <si>
@@ -1225,82 +1302,10 @@
   </si>
   <si>
     <t>{"title": "pie chart","type":"pie", "zone":"C38:L56", "dataset":"Sheet1!B27:B35", "labels":"Sheet1!A27:A35"}</t>
-  </si>
-  <si>
-    <t>Formats:</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>m/d/yyyy</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>sheetLink</t>
-  </si>
-  <si>
-    <t>External Reference:</t>
-  </si>
-  <si>
-    <t>[$$]#,##0.000</t>
   </si>
   <si>
     <t>This text have
  a newLine</t>
-  </si>
-  <si>
-    <t>[$₪]#,##0</t>
-  </si>
-  <si>
-    <t>#,##0.00[$€]</t>
-  </si>
-  <si>
-    <t>#,##0[$ EUR €]</t>
-  </si>
-  <si>
-    <t>not supported: multiple escaped sequences</t>
-  </si>
-  <si>
-    <t>TableWithFilter</t>
-  </si>
-  <si>
-    <t>Col1</t>
-  </si>
-  <si>
-    <t>Col2</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>NotHidden</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>DATEDIF</t>
-  </si>
-  <si>
-    <t>this is a very long text to wrap</t>
-  </si>
-  <si>
-    <t>Wrap text:</t>
-  </si>
-  <si>
-    <t>overflow</t>
-  </si>
-  <si>
-    <t>wrap</t>
-  </si>
-  <si>
-    <t>'sheet!'!R[1]C[1]</t>
-  </si>
-  <si>
-    <t>CustomStyle</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1321,7 @@
     <numFmt numFmtId="169" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="170" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2193,7 +2198,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2206,6 +2210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2216,14 +2221,151 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2633,159 +2775,22 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{33B8EB55-D8D8-4B00-B5CF-C84A8AC9E775}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="firstRowStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="firstRowStripe" dxfId="44"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2868,7 +2873,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2895,7 +2900,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -2907,11 +2912,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
                 <a:round/>
@@ -3014,7 +3019,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C65911"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -3026,11 +3031,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C65911"/>
               </a:solidFill>
               <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="C65911"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
                 <a:round/>
@@ -3190,7 +3195,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3223,7 +3228,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -3294,7 +3299,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3327,7 +3332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -3371,7 +3376,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3399,7 +3404,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3452,12 +3457,13 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
-            <a:ln cmpd="sng">
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="1F77B4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
@@ -3539,10 +3545,11 @@
                   <a:solidFill>
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                  <a:ln cmpd="sng">
+                  <a:ln>
                     <a:solidFill>
-                      <a:srgbClr val="1F77B4"/>
+                      <a:srgbClr val="7030A0"/>
                     </a:solidFill>
+                    <a:prstDash val="solid"/>
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
@@ -3557,12 +3564,13 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="C65911"/>
             </a:solidFill>
-            <a:ln cmpd="sng">
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FF7F0E"/>
+                <a:srgbClr val="C65911"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
@@ -3644,10 +3652,11 @@
                   <a:solidFill>
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                  <a:ln cmpd="sng">
+                  <a:ln>
                     <a:solidFill>
-                      <a:srgbClr val="FF7F0E"/>
+                      <a:srgbClr val="C65911"/>
                     </a:solidFill>
+                    <a:prstDash val="solid"/>
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
@@ -3722,7 +3731,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -3784,7 +3793,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -3812,7 +3821,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4430,7 +4439,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4796,7 +4805,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5008,7 +5017,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -5067,7 +5076,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -5095,7 +5104,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5441,7 +5450,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -5503,7 +5512,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -5531,7 +5540,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5858,7 +5867,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="344680958"/>
@@ -5934,7 +5943,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="998664793"/>
@@ -5957,7 +5966,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6505,6 +6514,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
@@ -6930,7 +6942,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="828" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7080,7 +7092,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7092,22 +7104,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7217,9 +7229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7257,7 +7269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7363,7 +7375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7505,7 +7517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7519,7 +7531,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -7528,7 +7540,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1">
       <c r="A1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7537,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="27.75">
       <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
@@ -7550,25 +7562,25 @@
       <c r="H2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="106"/>
+      <c r="I2" s="110"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1">
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="107">
+      <c r="K3" s="106">
         <v>5</v>
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -7581,50 +7593,50 @@
       <c r="G4" s="2">
         <v>9</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="108"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1">
       <c r="C5" s="2">
         <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="108"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1">
       <c r="G6" s="2">
         <v>22</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="108"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="108"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1">
       <c r="G8" s="2">
         <v>30</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="109"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -7634,7 +7646,7 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1">
       <c r="C10" s="2">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -7643,13 +7655,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="C11" s="2">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1">
       <c r="C12" s="2">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -7658,13 +7670,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1">
       <c r="G13" s="2">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1">
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
@@ -7673,32 +7685,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1">
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1">
       <c r="C16" s="2" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -7712,7 +7724,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
@@ -7722,7 +7734,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -7736,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -7747,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1">
       <c r="C25" s="17">
         <v>10.122999999999999</v>
       </c>
@@ -7758,7 +7770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -7772,7 +7784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -7789,7 +7801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -7806,7 +7818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -7823,7 +7835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -7840,7 +7852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -7857,7 +7869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -7874,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7891,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -7902,7 +7914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -7919,7 +7931,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7969,7 +7981,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7981,13 +7993,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="topRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8001,7 +8012,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -8021,7 +8032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8036,12 +8047,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -8073,12 +8084,12 @@
         <v>0.1</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2">
         <f>ABS(-5.5)</f>
@@ -8092,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <v>26</v>
@@ -8122,9 +8133,9 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2">
         <f>ACOS(1)</f>
@@ -8138,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2">
         <v>13</v>
@@ -8168,9 +8179,9 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2">
         <f>ROUND(ACOSH(2),5)</f>
@@ -8184,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>26</v>
@@ -8214,9 +8225,9 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2">
         <f>ROUND(_xlfn.ACOT(1),5)</f>
@@ -8230,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2">
         <v>42</v>
@@ -8260,9 +8271,9 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2">
         <f>ROUND(_xlfn.ACOTH(2),5)</f>
@@ -8276,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
         <v>9</v>
@@ -8291,7 +8302,7 @@
         <v>1000</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
@@ -8306,9 +8317,9 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="b">
         <f>AND(TRUE,TRUE)</f>
@@ -8322,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
         <v>27</v>
@@ -8340,9 +8351,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2">
         <f>ROUND(ASIN(0.5),5)</f>
@@ -8356,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
@@ -8374,9 +8385,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2">
         <f>ROUND(ASINH(2),5)</f>
@@ -8390,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2">
         <v>37</v>
@@ -8405,9 +8416,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2">
         <f>ROUND(ATAN(1),5)</f>
@@ -8421,9 +8432,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2">
         <f>ROUND(ATAN2(-1,0),5)</f>
@@ -8437,12 +8448,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="17.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2">
         <f>ROUND(ATANH(0.7),5)</f>
@@ -8471,9 +8482,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2">
         <f>ROUND(AVEDEV(I2:I9),5)</f>
@@ -8487,24 +8498,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2">
         <f>ROUND(AVERAGE(H2:H9),5)</f>
@@ -8518,9 +8529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGEA(G2:H9)</f>
@@ -8534,9 +8545,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2">
         <f>ROUND(AVERAGEIF(J2:J9,"&gt;150000"),5)</f>
@@ -8550,9 +8561,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(AVERAGEIFS(I2:I9,H2:H9,"&gt;=30",K2:K9,"&lt;10"),5)</f>
@@ -8566,9 +8577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2">
         <f>CEILING(20.4,1)</f>
@@ -8582,9 +8593,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2">
         <f>_xlfn.CEILING.MATH(-5.5,1,0)</f>
@@ -8598,9 +8609,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2">
         <f>_xlfn.CEILING.PRECISE(230,100)</f>
@@ -8614,25 +8625,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>CHAR(74)</f>
         <v>J</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2">
         <f>COLUMN(C4)</f>
@@ -8646,9 +8657,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2">
         <f>COLUMNS(A5:D12)</f>
@@ -8662,9 +8673,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>_xlfn.CONCAT(1,23)</f>
@@ -8679,25 +8690,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>CONCATENATE("BUT, ","MICHEL")</f>
         <v>BUT, MICHEL</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2">
         <f>ROUND(COS(PI()/3),2)</f>
@@ -8711,9 +8722,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2">
         <f>ROUND(COSH(2),5)</f>
@@ -8727,9 +8738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2">
         <f>ROUND(_xlfn.COT(PI()/6),5)</f>
@@ -8744,9 +8755,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2">
         <f>ROUND(_xlfn.COTH(0.5),5)</f>
@@ -8760,9 +8771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" s="2">
         <f>COUNT(1,"a","5","2021-03-14")</f>
@@ -8776,9 +8787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2">
         <f>COUNTA(1,"a","5","2021-03-14")</f>
@@ -8792,9 +8803,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2">
         <f>COUNTBLANK(F1:G1)</f>
@@ -8808,9 +8819,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="2">
         <f>COUNTIF(H2:H9,"&gt;30")</f>
@@ -8824,9 +8835,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="2">
         <f>COUNTIFS(H2:H9,"&gt;25",K2:K9,"&lt;4")</f>
@@ -8840,9 +8851,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2">
         <f>ROUND(COVAR(H2:H9,K2:K9),5)</f>
@@ -8856,9 +8867,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2">
         <f>ROUND(_xlfn.COVARIANCE.P(K2:K9,H2:H9),5)</f>
@@ -8872,9 +8883,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2">
         <f>ROUND(_xlfn.COVARIANCE.P(I2:I9,J2:J9),5)</f>
@@ -8888,9 +8899,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2">
         <f>ROUND(_xlfn.CSC(PI()/4),5)</f>
@@ -8905,9 +8916,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="2">
         <f>ROUND(_xlfn.CSCH(PI()/3),5)</f>
@@ -8921,9 +8932,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" s="19">
         <f>DATE(2020,5,25)</f>
@@ -8937,9 +8948,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2">
         <f>DATEVALUE("1969-08-15")</f>
@@ -8953,9 +8964,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2">
         <f>ROUND(DAVERAGE(G1:K9,"Tot. Score",J12:J13),5)</f>
@@ -8969,9 +8980,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2">
         <f>DAY("2020-03-17")</f>
@@ -8985,9 +8996,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2">
         <f>_xlfn.DAYS("2022-03-17","2021-03-17")</f>
@@ -9001,9 +9012,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2">
         <f>DCOUNT(G1:K9,"Name",H12:H13)</f>
@@ -9017,9 +9028,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2">
         <f>DCOUNTA(G1:K9,"Name",H12:H13)</f>
@@ -9033,9 +9044,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2">
         <f>_xlfn.DECIMAL(20,16)</f>
@@ -9049,9 +9060,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2">
         <f>DEGREES(PI()/4)</f>
@@ -9065,9 +9076,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2">
         <f>DGET(G1:K9,"Hours Played",G12:G13)</f>
@@ -9081,9 +9092,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2">
         <f>DMAX(G1:K9,"Tot. Score",I12:I13)</f>
@@ -9098,9 +9109,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2">
         <f>DMIN(G1:K9,"Tot. Score",H12:H13)</f>
@@ -9115,9 +9126,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2">
         <f>DPRODUCT(G1:K9,"Age",K12:K13)</f>
@@ -9131,9 +9142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2">
         <f>ROUND(DSTDEV(G1:K9,"Age",H12:H13),5)</f>
@@ -9147,9 +9158,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2">
         <f>ROUND(DSTDEVP(G1:K9,"Age",H12:H13),5)</f>
@@ -9163,9 +9174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2">
         <f>DSUM(G1:K9,"Age",I12:I13)</f>
@@ -9179,9 +9190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2">
         <f>ROUND(DVAR(G1:K9,"Hours Played",H12:H13),5)</f>
@@ -9195,9 +9206,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2">
         <f>ROUND(DVARP(G1:K9,"Hours Played",H12:H13),5)</f>
@@ -9211,9 +9222,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="19">
         <f>EDATE("1969-07-22",-2)</f>
@@ -9227,9 +9238,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59" s="19">
         <f>EOMONTH("2020-07-21",1)</f>
@@ -9243,9 +9254,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="b">
         <f>EXACT("AbsSdf%","AbsSdf%")</f>
@@ -9259,9 +9270,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2">
         <f>ROUND(EXP(4),5)</f>
@@ -9275,9 +9286,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2">
         <f>FIND("A","qbdahbaazo A")</f>
@@ -9291,9 +9302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2">
         <f>FLOOR(5.5,2)</f>
@@ -9307,9 +9318,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2">
         <f>_xlfn.FLOOR.MATH(-5.55,2,1)</f>
@@ -9323,9 +9334,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2">
         <f>_xlfn.FLOOR.PRECISE(199,100)</f>
@@ -9339,9 +9350,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2">
         <f>HLOOKUP("Tot. Score",H1:K9,4,FALSE)</f>
@@ -9355,9 +9366,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2">
         <f>HOUR("02:14:56")</f>
@@ -9371,57 +9382,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>IF(TRUE,"TABOURET","JAMBON")</f>
         <v>TABOURET</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>IFERROR(0/0,"no diving by zero.")</f>
         <v>no diving by zero.</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>_xlfn.IFS($H2&gt;$H3,"first player is older",$H3&gt;$H2,"second player is older")</f>
         <v>first player is older</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="b">
         <f>ISERROR(0/0)</f>
@@ -9435,9 +9446,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="b">
         <f>ISEVEN(3)</f>
@@ -9451,9 +9462,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="b">
         <f>ISLOGICAL("TRUE")</f>
@@ -9467,9 +9478,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="b">
         <f>ISNONTEXT(TRUE)</f>
@@ -9483,9 +9494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="b">
         <f>ISNUMBER(1231.5)</f>
@@ -9499,9 +9510,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2">
         <f>ISO.CEILING(-7.89)</f>
@@ -9515,9 +9526,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="b">
         <f>ISODD(4)</f>
@@ -9531,9 +9542,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2">
         <f>_xlfn.ISOWEEKNUM("2016-01-03")</f>
@@ -9547,9 +9558,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="b">
         <f>ISTEXT("123")</f>
@@ -9563,9 +9574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2">
         <f>LARGE(H2:H9,3)</f>
@@ -9579,25 +9590,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>LEFT("Mich",4)</f>
         <v>Mich</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2">
         <f>LEN("anticonstitutionnellement")</f>
@@ -9611,9 +9622,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2">
         <f>ROUND(LN(2),5)</f>
@@ -9627,9 +9638,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2">
         <f>LOOKUP(23000,H3:J3,H5:J5)</f>
@@ -9643,25 +9654,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="str">
         <f>LOWER("オAドB")</f>
         <v>オaドb</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2">
         <f>MATCH(42,H2:H9,0)</f>
@@ -9675,9 +9686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B87" s="2">
         <f>MAX(N1:N8)</f>
@@ -9691,9 +9702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2">
         <f>MAXA(N1:N8)</f>
@@ -9707,9 +9718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2">
         <f>_xlfn.MAXIFS(H2:H9,K2:K9,"&lt;20",K2:K9,"&lt;&gt;4")</f>
@@ -9723,9 +9734,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B90" s="2">
         <f>MEDIAN(-1,6,7,234,163845)</f>
@@ -9739,9 +9750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2">
         <f>MIN(N1:N8)</f>
@@ -9755,9 +9766,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B92" s="2">
         <f>MINA(N1:N8)</f>
@@ -9771,9 +9782,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2">
         <f>_xlfn.MINIFS(J2:J9,H2:H9,"&gt;20")</f>
@@ -9787,9 +9798,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B94" s="2">
         <f>MINUTE(0.126)</f>
@@ -9803,9 +9814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B95" s="2">
         <f>MOD(42,12)</f>
@@ -9819,9 +9830,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B96" s="2">
         <f>MONTH("1954-05-02")</f>
@@ -9835,9 +9846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2">
         <f>NETWORKDAYS("2013-01-01","2013-02-01")</f>
@@ -9851,9 +9862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B98" s="2">
         <f>NETWORKDAYS.INTL("2013-01-01","2013-02-01","0000111")</f>
@@ -9867,9 +9878,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B99" s="2" t="b">
         <f>NOT(FALSE)</f>
@@ -9883,22 +9894,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B100" s="20">
         <f ca="1">NOW()</f>
-        <v>45398.580923148147</v>
+        <v>45512.434189004627</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2">
         <f>ODD(4)</f>
@@ -9912,9 +9923,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B102" s="2" t="b">
         <f>OR("true",FALSE)</f>
@@ -9928,9 +9939,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B103" s="2">
         <f>PERCENTILE(N1:N5,1)</f>
@@ -9944,9 +9955,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B104" s="2">
         <f>_xlfn.PERCENTILE.EXC(N1:N5,0.5)</f>
@@ -9960,9 +9971,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B105" s="2">
         <f>_xlfn.PERCENTILE.INC(N1:N5,0)</f>
@@ -9976,9 +9987,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B106" s="2">
         <f>ROUND(PI(),5)</f>
@@ -9992,9 +10003,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B107" s="2">
         <f>POWER(42,2)</f>
@@ -10008,9 +10019,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B108" s="2">
         <f>PRODUCT(1,2,3)</f>
@@ -10024,9 +10035,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B109" s="2">
         <f>QUARTILE(N1:N5,0)</f>
@@ -10040,9 +10051,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B110" s="2">
         <f>ROUND(_xlfn.QUARTILE.EXC(N1:N5,1),5)</f>
@@ -10056,9 +10067,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B111" s="2">
         <f>_xlfn.QUARTILE.INC(N1:N5,4)</f>
@@ -10072,14 +10083,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B113" s="2">
         <f ca="1">RANDBETWEEN(1.1,2)</f>
@@ -10093,41 +10104,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B114" s="2" t="str">
         <f>REPLACE("ABZ",2,1,"Y")</f>
         <v>AYZ</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B115" s="2" t="str">
         <f>RIGHT("kikou",2)</f>
         <v>ou</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B116" s="2">
         <f>ROUND(49.9,0)</f>
@@ -10141,9 +10152,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B117" s="2">
         <f>ROUNDDOWN(42,-1)</f>
@@ -10157,9 +10168,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B118" s="2">
         <f>ROUNDUP(-1.6,0)</f>
@@ -10173,9 +10184,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B119" s="2">
         <f>ROW(A234)</f>
@@ -10189,9 +10200,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B120" s="2">
         <f>ROWS(B3:C40)</f>
@@ -10205,9 +10216,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B121" s="2">
         <f>SEARCH("C","ABCD")</f>
@@ -10221,9 +10232,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B122" s="2">
         <f>ROUND(_xlfn.SEC(PI()/3),5)</f>
@@ -10237,9 +10248,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B123" s="2">
         <f>ROUND(_xlfn.SECH(1),5)</f>
@@ -10253,9 +10264,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B124" s="2">
         <f>SECOND("00:21:42")</f>
@@ -10269,9 +10280,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B125" s="2">
         <f>ROUND(SIN(PI()/6),5)</f>
@@ -10285,9 +10296,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B126" s="2">
         <f>ROUND(SINH(1),5)</f>
@@ -10301,9 +10312,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B127" s="2">
         <f>SMALL(H2:H9,3)</f>
@@ -10317,9 +10328,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B128" s="2">
         <f>SQRT(4)</f>
@@ -10333,9 +10344,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B129" s="2">
         <f>STDEV(-2,0,2)</f>
@@ -10349,9 +10360,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B130" s="2">
         <f>_xlfn.STDEV.P(2,4)</f>
@@ -10365,9 +10376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B131" s="2">
         <f>_xlfn.STDEV.S(2,4,6)</f>
@@ -10381,9 +10392,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B132" s="2">
         <f>STDEVA(TRUE,3,5)</f>
@@ -10397,9 +10408,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B133" s="2">
         <f>ROUND(STDEVP(2,5,8),2)</f>
@@ -10413,9 +10424,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B134" s="2">
         <f>ROUND(STDEVPA(TRUE,4,7),2)</f>
@@ -10429,25 +10440,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B135" s="2" t="str">
         <f>SUBSTITUTE("SAP is best","SAP","Odoo")</f>
         <v>Odoo is best</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B136" s="2">
         <f>SUM(1,2,3,4,5)</f>
@@ -10461,9 +10472,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B137" s="2">
         <f>SUMIF(K2:K9,"&lt;100")</f>
@@ -10477,9 +10488,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B138" s="2">
         <f>SUMIFS(H2:H9,K2:K9,"&lt;100")</f>
@@ -10493,9 +10504,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B139" s="2">
         <f>ROUND(TAN(PI()/4),5)</f>
@@ -10509,9 +10520,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B140" s="2">
         <f>ROUND(TANH(1),5)</f>
@@ -10525,25 +10536,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B141" s="2" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"","1","A","%")</f>
         <v>1-A-%</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D141" s="2">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B142" s="21">
         <f>TIME(9,11,31)</f>
@@ -10557,9 +10568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B143" s="2">
         <f>TIMEVALUE("18:00:00")</f>
@@ -10573,38 +10584,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B144" s="19">
         <f ca="1">TODAY()</f>
-        <v>45398</v>
+        <v>45512</v>
       </c>
       <c r="D144" s="2">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B145" s="2" t="str">
         <f>TRIM(" Jean Ticonstitutionnalise ")</f>
         <v>Jean Ticonstitutionnalise</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D145" s="2">
         <f t="shared" ref="D145:D163" si="9">IF(B145=C145,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B146" s="2">
         <f>TRUNC(42.42,1)</f>
@@ -10618,25 +10629,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B147" s="2" t="str">
         <f>UPPER("grrrr !")</f>
         <v>GRRRR !</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D147" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B148" s="2">
         <f>ROUND(VAR(K1:K5),5)</f>
@@ -10650,9 +10661,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B149" s="2">
         <f>ROUND(_xlfn.VAR.P(K1:K5),5)</f>
@@ -10666,9 +10677,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B150" s="2">
         <f>_xlfn.VAR.S(2,5,8)</f>
@@ -10682,9 +10693,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B151" s="2">
         <f>ROUND(VARA(K1:K5),5)</f>
@@ -10698,9 +10709,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B152" s="2">
         <f>ROUND(VARP(K1:K5),5)</f>
@@ -10714,9 +10725,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B153" s="2">
         <f>ROUND(VARPA(K1:K5),5)</f>
@@ -10730,9 +10741,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B154" s="2">
         <f>VLOOKUP("NotACheater",G1:K9,3,FALSE)</f>
@@ -10747,9 +10758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B155" s="2">
         <f>WEEKDAY("2021-06-12")</f>
@@ -10763,9 +10774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B156" s="2">
         <f>WEEKNUM("2021-06-29")</f>
@@ -10779,9 +10790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B157" s="19">
         <f>WORKDAY("2021-03-15",6)</f>
@@ -10795,9 +10806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B158" s="19">
         <f>WORKDAY.INTL("2021-03-15",6,"0111111")</f>
@@ -10811,9 +10822,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B159" s="2" t="b">
         <f>_xlfn.XOR(FALSE,TRUE,FALSE,FALSE)</f>
@@ -10827,9 +10838,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B160" s="2">
         <f>YEAR("2012-03-12")</f>
@@ -10843,9 +10854,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B161" s="2">
         <f>DELTA(1,1)</f>
@@ -10859,25 +10870,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>409</v>
+        <v>227</v>
       </c>
       <c r="B162" s="2" t="str">
         <f>ADDRESS(1,1,4,FALSE,"sheet!")</f>
         <v>'sheet!'!R[1]C[1]</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="D162" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>410</v>
+        <v>229</v>
       </c>
       <c r="B163" s="2">
         <f>DATEDIF("2002/01/01","2002/01/02","D")</f>
@@ -10893,10 +10904,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10915,7 +10926,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -10925,63 +10936,63 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="C1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="110"/>
+        <v>231</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="109"/>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="D3" s="86" t="s">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" outlineLevel="1"/>
+    <row r="11" spans="1:8" outlineLevel="1"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
+    <row r="16" spans="1:8" outlineLevel="1"/>
+    <row r="17" outlineLevel="1"/>
+    <row r="18" outlineLevel="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -11003,381 +11014,381 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1">
       <c r="A1" s="69" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="F1" s="37"/>
       <c r="H1" s="35" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="L1" s="94" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="41" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>379</v>
+        <v>246</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="J2" s="84" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>395</v>
+        <v>251</v>
       </c>
       <c r="M2" s="95">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="42" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>381</v>
+        <v>254</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>393</v>
+        <v>255</v>
       </c>
       <c r="M3" s="96">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="43" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="J4" s="85" t="s">
-        <v>382</v>
+        <v>260</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>394</v>
+        <v>261</v>
       </c>
       <c r="M4" s="97">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="44" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>401</v>
+        <v>265</v>
       </c>
       <c r="M5" s="98">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="45" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H6" s="70" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="M6" s="99">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="46" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="M7" s="101">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21">
       <c r="A8" s="47" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E8" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>279</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>402</v>
       </c>
       <c r="M8" s="102">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="48" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="M9" s="103">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="49" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" thickBot="1">
       <c r="A11" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A12" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A13" s="52" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="53" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A15" s="54" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="55" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" thickBot="1">
       <c r="A17" s="56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" thickBot="1">
       <c r="A18" s="75" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1">
       <c r="A19" s="76" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>413</v>
+        <v>301</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="51.75" thickBot="1">
       <c r="A20" s="77" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>414</v>
+        <v>305</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" thickBot="1">
       <c r="A21" s="78" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" thickBot="1">
       <c r="A22" s="79" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1">
       <c r="A23" s="80" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="A24" s="81" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="C26" s="68" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="C28" s="89" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
+    <row r="30" spans="1:6">
       <c r="C30" s="88" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -11394,21 +11405,21 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1">
       <c r="A1" s="38" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>318</v>
@@ -11417,9 +11428,9 @@
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="39" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -11428,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H2" s="22">
         <v>5</v>
@@ -11440,18 +11451,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="39" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -11463,15 +11474,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="39" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -11483,9 +11494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="39" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B5" t="e">
         <f>0/0</f>
@@ -11495,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -11507,18 +11518,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="39" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -11530,21 +11541,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="39" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -11556,29 +11567,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="39" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1">
       <c r="A10" s="39" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11588,24 +11599,24 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="39" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -11617,20 +11628,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B12" s="40">
         <f ca="1">TODAY()</f>
-        <v>45398</v>
+        <v>45512</v>
       </c>
       <c r="C12" s="40">
         <f>DATE(2010,10,2)</f>
         <v>40453</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -11642,9 +11653,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="39" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -11653,7 +11664,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -11665,21 +11676,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="39" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -11691,15 +11702,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="39" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -11711,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="39" t="s">
         <v>352</v>
       </c>
@@ -11722,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -11734,9 +11745,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11745,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -11757,9 +11768,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="39" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -11768,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -11780,9 +11791,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="39" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -11791,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -11803,9 +11814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="39" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11814,7 +11825,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -11826,9 +11837,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="39" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -11837,7 +11848,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -11852,9 +11863,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="39" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -11863,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -11878,9 +11889,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="39" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -11889,7 +11900,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -11904,9 +11915,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="G24" s="35" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -11921,9 +11932,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="39" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -11932,7 +11943,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -11947,9 +11958,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="G26" s="35" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -11967,15 +11978,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="22" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -11993,9 +12004,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="G28" s="35" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -12013,9 +12024,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="G29" s="35" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -12033,9 +12044,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="G30" s="35" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -12053,9 +12064,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1">
       <c r="G31" s="36" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="H31" s="37">
         <v>5</v>
@@ -12067,9 +12078,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="G32" s="35" t="s">
-        <v>286</v>
+        <v>378</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -12081,9 +12092,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:10">
       <c r="G33" s="35" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -12095,9 +12106,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:10">
       <c r="G34" s="35" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -12109,9 +12120,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:10">
       <c r="G35" s="35" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -12123,9 +12134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:10">
       <c r="G36" s="35" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -12137,9 +12148,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:10">
       <c r="G37" s="35" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -12151,110 +12162,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:10">
       <c r="G39" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="24" priority="58">
+    <cfRule type="expression" dxfId="40" priority="58">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="22" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="21" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="20" priority="71">
+    <cfRule type="containsBlanks" dxfId="36" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="19" priority="70">
+    <cfRule type="containsErrors" dxfId="35" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="18" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="17" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="15" priority="65">
+    <cfRule type="notContainsErrors" dxfId="31" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="14" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="13" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="12" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="11" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="10" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
@@ -12288,10 +12299,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="3" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="2" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -12715,11 +12726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CCC4B1-5C65-4837-AA26-56CCF06B63BB}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -12731,12 +12742,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
       <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
@@ -12744,27 +12755,27 @@
         <v>36</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>26</v>
@@ -12793,9 +12804,9 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
         <v>13</v>
@@ -12824,9 +12835,9 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="D6" s="2">
         <f>SUBTOTAL(109,Table3[Age])</f>
@@ -12857,9 +12868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -12868,7 +12879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="C9">
         <v>3</v>
       </c>
@@ -12876,18 +12887,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12">
         <v>3</v>
       </c>
@@ -12895,9 +12906,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -12906,7 +12917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="C15">
         <v>3</v>
       </c>
@@ -12914,9 +12925,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -12925,7 +12936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="C18">
         <v>3</v>
       </c>
@@ -12933,9 +12944,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -12944,7 +12955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="C21">
         <v>3</v>
       </c>
@@ -12952,9 +12963,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -12963,7 +12974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="C24">
         <v>3</v>
       </c>
@@ -12971,9 +12982,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -12982,7 +12993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="C27">
         <v>3</v>
       </c>
@@ -12990,45 +13001,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="C28" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="D28">
         <f>SUBTOTAL(109,Table4910[Column2])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" t="s">
+        <v>402</v>
+      </c>
+      <c r="D30" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" hidden="1">
+      <c r="C31" t="s">
         <v>404</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="C32" t="s">
         <v>405</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>407</v>
-      </c>
-      <c r="D31" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>408</v>
-      </c>
-      <c r="D32" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -13056,7 +13067,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -13077,9 +13088,9 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="93" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -13087,7 +13098,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13095,21 +13106,21 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="90" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="90" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="D4">
         <v>12.1</v>
@@ -13136,14 +13147,14 @@
         <v>12052</v>
       </c>
       <c r="L4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>30</v>
@@ -13152,7 +13163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="92">
@@ -13165,11 +13176,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>26</v>
@@ -13178,7 +13189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="92">
@@ -13191,11 +13202,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>26</v>
@@ -13204,7 +13215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="92">
@@ -13217,9 +13228,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="C11" s="91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>13</v>
@@ -13228,7 +13239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="C12" s="92">
         <v>23000</v>
       </c>
@@ -13239,9 +13250,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="C13" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -13250,7 +13261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="C14" s="92">
         <v>2</v>
       </c>
@@ -13261,9 +13272,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="C15" s="91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15">
         <v>42</v>
@@ -13272,7 +13283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="C16" s="92">
         <v>50024</v>
       </c>
@@ -13283,9 +13294,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12">
       <c r="C17" s="91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17">
         <v>27</v>
@@ -13294,7 +13305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12">
       <c r="C18" s="92">
         <v>189576</v>
       </c>
@@ -13305,9 +13316,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12">
       <c r="C19" s="91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>37</v>
@@ -13316,7 +13327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12">
       <c r="C20" s="92">
         <v>5000</v>
       </c>
@@ -13327,9 +13338,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12">
       <c r="C21" s="91" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -13369,35 +13380,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -13414,11 +13425,11 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="38.25">
       <c r="A1" s="100" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82EC8D04-FB30-4625-805F-DD659B4B146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E556DF-B6A9-4914-8E28-82201545992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="828" r:id="rId15"/>
+    <pivotCache cacheId="153" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2240,7 +2240,7 @@
         <u/>
         <color theme="7"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="lightTrellis">
           <fgColor theme="4"/>
@@ -2795,6 +2795,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF000000"/>
       <color rgb="FFCECECE"/>
       <color rgb="FFD0CECE"/>
@@ -6942,7 +6943,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="828" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7525,9 +7526,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D5EBC-45F5-4C42-AA75-560DF70B9F2E}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -8041,6 +8045,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630FA18-71FC-4ACD-8379-39A3603D1DD6}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
@@ -9900,7 +9907,7 @@
       </c>
       <c r="B100" s="20">
         <f ca="1">NOW()</f>
-        <v>45512.434189004627</v>
+        <v>45526.511599421297</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -10590,7 +10597,7 @@
       </c>
       <c r="B144" s="19">
         <f ca="1">TODAY()</f>
-        <v>45512</v>
+        <v>45526</v>
       </c>
       <c r="D144" s="2">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -10918,12 +10925,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE33AE-060F-4630-8DDE-76E5F5CF58F5}">
   <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -11634,7 +11642,7 @@
       </c>
       <c r="B12" s="40">
         <f ca="1">TODAY()</f>
-        <v>45512</v>
+        <v>45526</v>
       </c>
       <c r="C12" s="40">
         <f>DATE(2010,10,2)</f>
@@ -13380,7 +13388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EAB923-A1B3-42FF-B544-1E3FCDFFEEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4A409-66E7-4CFC-A548-ECD1D6D1B504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23295" yWindow="195" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="jestFreezePane" sheetId="14" r:id="rId11"/>
     <sheet name="jestImages" sheetId="15" r:id="rId12"/>
     <sheet name="jestOneCellAnchor" sheetId="16" r:id="rId13"/>
+    <sheet name="jestDataValidations" sheetId="17" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,6 +46,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="434">
   <si>
     <t>CF =42</t>
   </si>
@@ -1304,22 +1307,72 @@
   <si>
     <t>This text have
  a newLine</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Whole</t>
+  </si>
+  <si>
+    <t>Value In Range</t>
+  </si>
+  <si>
+    <t>Value In List</t>
+  </si>
+  <si>
+    <t>Date Not Equal</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Text Length</t>
+  </si>
+  <si>
+    <t>Date is Greater Than</t>
+  </si>
+  <si>
+    <t>Custom Formula</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>option3</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>A1234556</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="[$₪-40D]\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="#,##0&quot; EUR €&quot;"/>
-    <numFmt numFmtId="170" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="[$₪-40D]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1477,8 +1530,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1653,8 +1712,20 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2003,18 +2074,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2065,10 +2219,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2182,16 +2336,38 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2211,7 +2387,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
@@ -2648,7 +2824,7 @@
         <u/>
         <color theme="7"/>
       </font>
-      <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="lightTrellis">
           <fgColor theme="4"/>
@@ -2816,7 +2992,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3417,7 +3593,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3849,7 +4025,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -4467,7 +4643,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4833,7 +5009,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -5132,7 +5308,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5568,7 +5744,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5612,9 +5788,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
-            </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="1F77B4"/>
@@ -5973,7 +6146,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -6957,6 +7130,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
@@ -6992,6 +7168,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E90E321-E964-46C8-9CE7-DEE1186146D9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7031,6 +7210,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC27214-40A9-4FF9-BB37-40F876B2768B}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E90E321-E964-46C8-9CE7-DEE1186146D9}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
@@ -7069,6 +7251,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5685A00-859E-4641-A529-E7042819F3BF}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CC27214-40A9-4FF9-BB37-40F876B2768B}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
@@ -7106,6 +7291,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B20B98-FA84-44C9-8DBB-5852658E9967}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A5685A00-859E-4641-A529-E7042819F3BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7671,9 +7859,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7711,7 +7899,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7817,7 +8005,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7959,7 +8147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7976,397 +8164,397 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="26" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="G1" s="117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="117">
         <v>5</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="5" t="s">
+      <c r="I2" s="119"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="117">
         <v>8</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="107">
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="120">
         <v>5</v>
       </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="117">
         <v>12.4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="117">
         <v>9</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="117">
         <v>42</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="117">
         <v>15</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="2">
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="117">
         <v>22</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
+      <c r="J6" s="5"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="117">
         <v>3</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="2">
+      <c r="J7" s="5"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="117">
         <v>30</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="117">
         <f>SUM(C4:C5)</f>
         <v>54.4</v>
       </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="117">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="117" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="117">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="117" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="2">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="117">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="117" t="str">
         <f ca="1">C14</f>
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="str">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="117" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="117" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <f>jestCharts!B2</f>
         <v>0</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>0.43</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="117">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="117">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="17">
+      <c r="H24" s="117">
+        <v>1</v>
+      </c>
+      <c r="I24" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="117">
         <v>2</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="117">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="117">
         <v>3</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="117">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="117">
         <v>12</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="117">
         <v>24</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="117">
         <v>4</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="117">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="117">
         <v>48</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="117">
         <v>12</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="117">
         <v>5</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="117">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="117">
         <v>45</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="117">
         <v>27</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="117">
         <v>6</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="117">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="117">
+        <v>1</v>
+      </c>
+      <c r="C30" s="117">
         <v>9</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="117">
         <v>7</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="117">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="117">
         <v>25</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="117">
         <v>45</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="117">
         <v>8</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="117">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="117">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="117">
         <v>17</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="117">
         <v>9</v>
       </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="I32" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="117">
         <v>20</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="117">
         <v>43</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="117">
         <v>10</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="117">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="117">
         <v>19</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="117">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="117">
         <v>16</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="117">
         <v>16</v>
       </c>
     </row>
@@ -8426,7 +8614,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8443,7 +8631,7 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8457,10 +8645,10 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.109375" customWidth="1"/>
-    <col min="2" max="26" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" customWidth="1"/>
+    <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8477,10 +8665,239 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F2510-D243-4DA1-81DE-BBDDA9BC3681}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="115" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="115" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="115" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="104">
+        <v>4</v>
+      </c>
+      <c r="B2" s="105">
+        <v>99.5</v>
+      </c>
+      <c r="C2" s="105">
+        <v>1</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" s="106">
+        <v>45575</v>
+      </c>
+      <c r="F2" s="107">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>427</v>
+      </c>
+      <c r="H2" s="106">
+        <v>45292</v>
+      </c>
+      <c r="I2" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="104">
+        <v>3</v>
+      </c>
+      <c r="B3" s="105">
+        <v>40</v>
+      </c>
+      <c r="C3" s="105">
+        <v>2</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="106">
+        <v>45576</v>
+      </c>
+      <c r="F3" s="107">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="H3" s="106">
+        <v>45231</v>
+      </c>
+      <c r="I3" s="108" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="104">
+        <v>9</v>
+      </c>
+      <c r="B4" s="105">
+        <v>0</v>
+      </c>
+      <c r="C4" s="105">
+        <v>3</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="106">
+        <v>45574</v>
+      </c>
+      <c r="F4" s="107">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="106">
+        <v>45325</v>
+      </c>
+      <c r="I4" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="104">
+        <v>5</v>
+      </c>
+      <c r="B5" s="105">
+        <v>120</v>
+      </c>
+      <c r="C5" s="105">
+        <v>4</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="106">
+        <v>45573</v>
+      </c>
+      <c r="F5" s="107">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>432</v>
+      </c>
+      <c r="H5" s="106">
+        <v>45084</v>
+      </c>
+      <c r="I5" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="109">
+        <v>7</v>
+      </c>
+      <c r="B6" s="110">
+        <v>12</v>
+      </c>
+      <c r="C6" s="110">
+        <v>5</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="111">
+        <v>45566</v>
+      </c>
+      <c r="F6" s="112">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G6" s="110" t="s">
+        <v>433</v>
+      </c>
+      <c r="H6" s="111">
+        <v>45420</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{B9309757-E2F4-49A1-880B-2F47F04364D6}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{7B68D26A-1B1D-4327-906D-753CF39E281C}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{1150F523-8C6C-482F-8738-910EECBB2A28}">
+      <formula1>$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{54DB89C3-BBA6-4A2D-B5BB-AC6E00AEE4DA}">
+      <formula1>45575</formula1>
+    </dataValidation>
+    <dataValidation type="time" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{EF20CA15-C64F-4A4E-82C5-8291CBEAEB85}">
+      <formula1>0.625</formula1>
+      <formula2>0.75</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{C9CA9AA5-9067-42E1-AC95-BEC22F4C4C16}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{B1282AE0-81A7-4F83-934D-520FB78380E5}">
+      <formula1>ISNUMBER(I2)</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{A800671A-DD3E-492C-AC04-70928416B8CA}">
+      <formula1>45261</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{1E18A174-B5CF-4015-B7DC-F1491351E054}">
+      <formula1>"option1,option2,option3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8495,77 +8912,77 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="13.6640625" customWidth="1"/>
+    <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="117">
         <v>0.1</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="117">
         <f>ABS(-5.5)</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="117">
         <v>5.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="117">
         <f t="shared" ref="D2:D33" si="0">IF(B2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="117">
         <v>26</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="117">
         <v>1204.7</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="117">
         <v>25618</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="117">
         <v>5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="117">
         <v>0.2</v>
       </c>
       <c r="P2">
@@ -8581,37 +8998,37 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="117">
         <f>ACOS(1)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="117">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="117">
         <v>13</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="117">
         <v>500.9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="117">
         <v>23000</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="117">
         <v>7</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="117">
         <v>0.4</v>
       </c>
       <c r="P3">
@@ -8627,37 +9044,37 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="117">
         <f>ROUND(ACOSH(2),5)</f>
         <v>1.3169599999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="117">
         <v>1.3169599999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="117">
         <v>26</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="117">
         <v>252.4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="117">
         <v>110120.5</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="117">
         <v>3</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="117">
         <v>0.5</v>
       </c>
       <c r="P4">
@@ -8673,37 +9090,37 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="117">
         <f>ROUND(_xlfn.ACOT(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="117">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="117">
         <v>42</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="117">
         <v>4701.3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="117">
         <v>50024</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="117">
         <v>4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="117">
         <v>0.6</v>
       </c>
       <c r="P5">
@@ -8719,37 +9136,37 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="117">
         <f>ROUND(_xlfn.ACOTH(2),5)</f>
         <v>0.54930999999999996</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="117">
         <v>0.54930999999999996</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="117">
         <f>IF(B6=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="117">
         <v>9</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="117">
         <v>12.1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="117">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="117">
         <v>1000</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="117" t="s">
         <v>51</v>
       </c>
       <c r="P6">
@@ -8765,2587 +9182,2587 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="b">
+      <c r="B7" s="117" t="b">
         <f>AND(TRUE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="117">
         <v>27</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="117">
         <v>4000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="117">
         <v>189576</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="117">
         <v>2</v>
       </c>
-      <c r="N7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="N7" s="117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="117">
         <f>ROUND(ASIN(0.5),5)</f>
         <v>0.52359999999999995</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="117">
         <v>0.52359999999999995</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="117">
         <v>30</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="117">
         <v>12052</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="117">
         <v>256018</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="b">
+      <c r="K8" s="117">
+        <v>1</v>
+      </c>
+      <c r="N8" s="117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="117">
         <f>ROUND(ASINH(2),5)</f>
         <v>1.44364</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="117">
         <v>1.44364</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="117">
         <v>37</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="117">
         <v>4890.1000000000004</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="117">
         <v>5000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="117">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="117">
         <f>ROUND(ATAN(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="117">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="117">
         <f>ROUND(ATAN2(-1,0),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="117">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="117" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="117">
         <f>ROUND(ATANH(0.7),5)</f>
         <v>0.86729999999999996</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="117">
         <v>0.86729999999999996</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="117">
         <f>ROUND(AVEDEV(I2:I9),5)</f>
         <v>2959.1624999999999</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="117">
         <v>2959.1624999999999</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="117" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="117">
         <f>ROUND(AVERAGE(H2:H9),5)</f>
         <v>26.25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="117">
         <v>26.25</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="117">
         <f>AVERAGEA(G2:H9)</f>
         <v>13.125</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="117">
         <v>13.125</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="117">
         <f>ROUND(AVERAGEIF(J2:J9,"&gt;150000"),5)</f>
         <v>222797</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="117">
         <v>222797</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="117">
         <f>ROUND(AVERAGEIFS(I2:I9,H2:H9,"&gt;=30",K2:K9,"&lt;10"),5)</f>
         <v>8376.65</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="117">
         <v>8376.65</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="117">
         <f>CEILING(20.4,1)</f>
         <v>21</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="117">
         <v>21</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="117">
         <f>_xlfn.CEILING.MATH(-5.5,1,0)</f>
         <v>-5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="117">
         <v>-5</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="117">
         <f>_xlfn.CEILING.PRECISE(230,100)</f>
         <v>300</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="117">
         <v>300</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="117" t="str">
         <f>CHAR(74)</f>
         <v>J</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="117">
         <f>COLUMN(C4)</f>
         <v>3</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="117">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="117">
         <f>COLUMNS(A5:D12)</f>
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="117">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="117" t="str">
         <f>_xlfn.CONCAT(1,23)</f>
         <v>123</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="117" t="str">
         <f>"123"</f>
         <v>123</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="117" t="str">
         <f>CONCATENATE("BUT, ","MICHEL")</f>
         <v>BUT, MICHEL</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="117">
         <f>ROUND(COS(PI()/3),2)</f>
         <v>0.5</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="117">
         <v>0.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="117">
         <f>ROUND(COSH(2),5)</f>
         <v>3.7622</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="117">
         <v>3.7622</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="117">
         <f>ROUND(_xlfn.COT(PI()/6),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="117">
         <f>ROUND(SQRT(3),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="117">
         <f>ROUND(_xlfn.COTH(0.5),5)</f>
         <v>2.1639499999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="117">
         <v>2.1639499999999998</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="117">
         <f>COUNT(1,"a","5","2021-03-14")</f>
         <v>3</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="117">
         <v>2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="117">
         <f>COUNTA(1,"a","5","2021-03-14")</f>
         <v>4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="117">
         <v>4</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="117">
         <f>COUNTBLANK(F1:G1)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="117">
+        <v>1</v>
+      </c>
+      <c r="D32" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="117">
         <f>COUNTIF(H2:H9,"&gt;30")</f>
         <v>2</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="117">
         <v>2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="117">
         <f>COUNTIFS(H2:H9,"&gt;25",K2:K9,"&lt;4")</f>
         <v>3</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="117">
         <v>3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="117">
         <f t="shared" ref="D34:D65" si="4">IF(B34=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="117">
         <f>ROUND(COVAR(H2:H9,K2:K9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="117">
         <v>-2119.25</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="117">
         <f>ROUND(_xlfn.COVARIANCE.P(K2:K9,H2:H9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="117">
         <v>-2119.25</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="117">
         <f>ROUND(_xlfn.COVARIANCE.P(I2:I9,J2:J9),5)</f>
         <v>237217364.71641001</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="117">
         <v>237217364.71641001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="117">
         <f>ROUND(_xlfn.CSC(PI()/4),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="117">
         <f>ROUND(SQRT(2),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="117">
         <f>ROUND(_xlfn.CSCH(PI()/3),5)</f>
         <v>0.80040999999999995</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="117">
         <v>0.80040999999999995</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <f>DATE(2020,5,25)</f>
         <v>43976</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="18">
         <v>43976</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="117">
         <f>DATEVALUE("1969-08-15")</f>
         <v>25430</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="117">
         <v>25430</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="117">
         <f>ROUND(DAVERAGE(G1:K9,"Tot. Score",J12:J13),5)</f>
         <v>151434.625</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="117">
         <v>151434.625</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="117">
         <f>DAY("2020-03-17")</f>
         <v>17</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="117">
         <v>17</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="117">
         <f>_xlfn.DAYS("2022-03-17","2021-03-17")</f>
         <v>365</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="117">
         <v>365</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="117">
         <f>DCOUNT(G1:K9,"Name",H12:H13)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="117">
         <v>0</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="117">
         <f>DCOUNTA(G1:K9,"Name",H12:H13)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="117">
         <v>3</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="117">
         <f>_xlfn.DECIMAL(20,16)</f>
         <v>32</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="117">
         <v>32</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="117">
         <f>DEGREES(PI()/4)</f>
         <v>45</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="117">
         <v>45</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="117">
         <f>DGET(G1:K9,"Hours Played",G12:G13)</f>
         <v>252.4</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="117">
         <v>252.4</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="117">
         <f>DMAX(G1:K9,"Tot. Score",I12:I13)</f>
         <v>189576</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="117">
         <f>J7</f>
         <v>189576</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="117">
         <f>DMIN(G1:K9,"Tot. Score",H12:H13)</f>
         <v>5000</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="117">
         <f>J9</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="117">
         <f>DPRODUCT(G1:K9,"Age",K12:K13)</f>
         <v>333</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="117">
         <v>333</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="117">
         <f>ROUND(DSTDEV(G1:K9,"Age",H12:H13),5)</f>
         <v>6.0277099999999999</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="117">
         <v>6.0277099999999999</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="117">
         <f>ROUND(DSTDEVP(G1:K9,"Age",H12:H13),5)</f>
         <v>4.9216100000000003</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="117">
         <v>4.9216100000000003</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="117">
         <f>DSUM(G1:K9,"Age",I12:I13)</f>
         <v>101</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="117">
         <v>101</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="117">
         <f>ROUND(DVAR(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>17560207.923330002</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="117">
         <v>17560207.923330002</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="117">
         <f>ROUND(DVARP(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>11706805.28222</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="117">
         <v>11706805.28222</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="18">
         <f>EDATE("1969-07-22",-2)</f>
         <v>25345</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>25345</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="18">
         <f>EOMONTH("2020-07-21",1)</f>
         <v>44074</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <v>44074</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="2" t="b">
+      <c r="B60" s="117" t="b">
         <f>EXACT("AbsSdf%","AbsSdf%")</f>
         <v>1</v>
       </c>
-      <c r="C60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="C60" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="117">
         <f>ROUND(EXP(4),5)</f>
         <v>54.598149999999997</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="117">
         <v>54.598149999999997</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="117">
         <f>FIND("A","qbdahbaazo A")</f>
         <v>12</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="117">
         <v>12</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="117">
         <f>FLOOR(5.5,2)</f>
         <v>4</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="117">
         <v>4</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="117">
         <f>_xlfn.FLOOR.MATH(-5.55,2,1)</f>
         <v>-4</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="117">
         <v>-4</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="117">
         <f>_xlfn.FLOOR.PRECISE(199,100)</f>
         <v>100</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="117">
         <v>100</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="117">
         <f>HLOOKUP("Tot. Score",H1:K9,4,FALSE)</f>
         <v>110120.5</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="117">
         <v>110120.5</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="117">
         <f t="shared" ref="D66:D97" si="5">IF(B66=C66,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="117">
         <f>HOUR("02:14:56")</f>
         <v>2</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="117">
         <v>2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="117" t="str">
         <f>IF(TRUE,"TABOURET","JAMBON")</f>
         <v>TABOURET</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="2" t="str">
+      <c r="B69" s="117" t="str">
         <f>IFERROR(0/0,"no diving by zero.")</f>
         <v>no diving by zero.</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="2" t="str">
+      <c r="B70" s="117" t="str">
         <f>_xlfn.IFS($H2&gt;$H3,"first player is older",$H3&gt;$H2,"second player is older")</f>
         <v>first player is older</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="2" t="b">
+      <c r="B71" s="117" t="b">
         <f>ISERROR(0/0)</f>
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C71" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="2" t="b">
+      <c r="B72" s="117" t="b">
         <f>ISEVEN(3)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="b">
+      <c r="C72" s="117" t="b">
         <v>0</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="2" t="b">
+      <c r="B73" s="117" t="b">
         <f>ISLOGICAL("TRUE")</f>
         <v>0</v>
       </c>
-      <c r="C73" s="2" t="b">
+      <c r="C73" s="117" t="b">
         <v>0</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="2" t="b">
+      <c r="B74" s="117" t="b">
         <f>ISNONTEXT(TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="C74" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="2" t="b">
+      <c r="B75" s="117" t="b">
         <f>ISNUMBER(1231.5)</f>
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="C75" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="117">
         <f>ISO.CEILING(-7.89)</f>
         <v>-7</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="117">
         <v>-7</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="2" t="b">
+      <c r="B77" s="117" t="b">
         <f>ISODD(4)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="2" t="b">
+      <c r="C77" s="117" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="117">
         <f>_xlfn.ISOWEEKNUM("2016-01-03")</f>
         <v>53</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="117">
         <v>53</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="2" t="b">
+      <c r="B79" s="117" t="b">
         <f>ISTEXT("123")</f>
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="C79" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="117">
         <f>LARGE(H2:H9,3)</f>
         <v>30</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="117">
         <v>30</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="2" t="str">
+      <c r="B81" s="117" t="str">
         <f>LEFT("Mich",4)</f>
         <v>Mich</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="117">
         <f>LEN("anticonstitutionnellement")</f>
         <v>25</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="117">
         <v>25</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="117">
         <f>ROUND(LN(2),5)</f>
         <v>0.69315000000000004</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="117">
         <v>0.69315000000000004</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="117">
         <f>LOOKUP(23000,H3:J3,H5:J5)</f>
         <v>50024</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="117">
         <v>50024</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="2" t="str">
+      <c r="B85" s="117" t="str">
         <f>LOWER("オAドB")</f>
         <v>オaドb</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="117">
         <f>MATCH(42,H2:H9,0)</f>
         <v>4</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="117">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="117">
         <f>MAX(N1:N8)</f>
         <v>0.6</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="117">
         <v>0.6</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="117">
         <f>MAXA(N1:N8)</f>
         <v>1</v>
       </c>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="C88" s="117">
+        <v>1</v>
+      </c>
+      <c r="D88" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="117">
         <f>_xlfn.MAXIFS(H2:H9,K2:K9,"&lt;20",K2:K9,"&lt;&gt;4")</f>
         <v>30</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="117">
         <v>30</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="117">
         <f>MEDIAN(-1,6,7,234,163845)</f>
         <v>7</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="117">
         <v>7</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="117">
         <f>MIN(N1:N8)</f>
         <v>0.1</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="117">
         <v>0.1</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="117">
         <f>MINA(N1:N8)</f>
         <v>0</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="117">
         <v>0</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="117">
         <f>_xlfn.MINIFS(J2:J9,H2:H9,"&gt;20")</f>
         <v>5000</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="117">
         <v>5000</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="117">
         <f>MINUTE(0.126)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="C94" s="117">
+        <v>1</v>
+      </c>
+      <c r="D94" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="117">
         <f>MOD(42,12)</f>
         <v>6</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="117">
         <v>6</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="117">
         <f>MONTH("1954-05-02")</f>
         <v>5</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="117">
         <v>5</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="117">
         <f>NETWORKDAYS("2013-01-01","2013-02-01")</f>
         <v>24</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="117">
         <v>24</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="117">
         <f>NETWORKDAYS.INTL("2013-01-01","2013-02-01","0000111")</f>
         <v>19</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="117">
         <v>19</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="117">
         <f t="shared" ref="D98:D99" si="6">IF(B98=C98,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="2" t="b">
+      <c r="B99" s="117" t="b">
         <f>NOT(FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2">
+      <c r="C99" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45538.429115162035</v>
-      </c>
-      <c r="D100" s="2">
+        <v>45594.46900636574</v>
+      </c>
+      <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="117">
         <f>ODD(4)</f>
         <v>5</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="117">
         <v>5</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="117">
         <f t="shared" ref="D101:D111" si="7">IF(B101=C101,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="2" t="b">
+      <c r="B102" s="117" t="b">
         <f>OR("true",FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" s="2">
+      <c r="C102" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="117">
         <f>PERCENTILE(N1:N5,1)</f>
         <v>0.6</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="117">
         <v>0.6</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="117">
         <f>_xlfn.PERCENTILE.EXC(N1:N5,0.5)</f>
         <v>0.4</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="117">
         <v>0.4</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="117">
         <f>_xlfn.PERCENTILE.INC(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="117">
         <v>0.1</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="117">
         <f>ROUND(PI(),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="117">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="117">
         <f>POWER(42,2)</f>
         <v>1764</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="117">
         <v>1764</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="117">
         <f>PRODUCT(1,2,3)</f>
         <v>6</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="117">
         <v>6</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="117">
         <f>QUARTILE(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="117">
         <v>0.1</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="117">
         <f>ROUND(_xlfn.QUARTILE.EXC(N1:N5,1),5)</f>
         <v>0.15</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="117">
         <v>0.15</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="117">
         <f>_xlfn.QUARTILE.INC(N1:N5,4)</f>
         <v>0.6</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="117">
         <v>0.6</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="117"/>
+      <c r="B112" s="117"/>
+      <c r="D112" s="117"/>
+    </row>
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="117">
         <f ca="1">RANDBETWEEN(1.1,2)</f>
         <v>2</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="117">
         <v>2</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="117">
         <f t="shared" ref="D113:D143" ca="1" si="8">IF(B113=C113,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="B114" s="2" t="str">
+      <c r="B114" s="117" t="str">
         <f>REPLACE("ABZ",2,1,"Y")</f>
         <v>AYZ</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="117" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="B115" s="2" t="str">
+      <c r="B115" s="117" t="str">
         <f>RIGHT("kikou",2)</f>
         <v>ou</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="117">
         <f>ROUND(49.9,0)</f>
         <v>50</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="117">
         <v>50</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="117">
         <f>ROUNDDOWN(42,-1)</f>
         <v>40</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="117">
         <v>40</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="117">
         <f>ROUNDUP(-1.6,0)</f>
         <v>-2</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="117">
         <v>-2</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="117">
         <f>ROW(A234)</f>
         <v>234</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="117">
         <v>234</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="117">
         <f>ROWS(B3:C40)</f>
         <v>38</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="117">
         <v>38</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="117">
         <f>SEARCH("C","ABCD")</f>
         <v>3</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="117">
         <v>3</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="117">
         <f>ROUND(_xlfn.SEC(PI()/3),5)</f>
         <v>2</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="117">
         <v>2</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="117">
         <f>ROUND(_xlfn.SECH(1),5)</f>
         <v>0.64805000000000001</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="117">
         <v>0.64805000000000001</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="117" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="117">
         <f>SECOND("00:21:42")</f>
         <v>42</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="117">
         <v>42</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="117">
         <f>ROUND(SIN(PI()/6),5)</f>
         <v>0.5</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="117">
         <v>0.5</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="117">
         <f>ROUND(SINH(1),5)</f>
         <v>1.1752</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="117">
         <v>1.1752</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="117">
         <f>SMALL(H2:H9,3)</f>
         <v>26</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="117">
         <v>26</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="117">
         <f>SQRT(4)</f>
         <v>2</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="117">
         <v>2</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="117">
         <f>STDEV(-2,0,2)</f>
         <v>2</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="117">
         <v>2</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="117">
         <f>_xlfn.STDEV.P(2,4)</f>
         <v>1</v>
       </c>
-      <c r="C130" s="2">
-        <v>1</v>
-      </c>
-      <c r="D130" s="2">
+      <c r="C130" s="117">
+        <v>1</v>
+      </c>
+      <c r="D130" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="117">
         <f>_xlfn.STDEV.S(2,4,6)</f>
         <v>2</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="117">
         <v>2</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="117">
         <f>STDEVA(TRUE,3,5)</f>
         <v>2</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="117">
         <v>2</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="117">
         <f>ROUND(STDEVP(2,5,8),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="117">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="117">
         <f>ROUND(STDEVPA(TRUE,4,7),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="117">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" s="117" t="str">
         <f>SUBSTITUTE("SAP is best","SAP","Odoo")</f>
         <v>Odoo is best</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="117">
         <f>SUM(1,2,3,4,5)</f>
         <v>15</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="117">
         <v>15</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="117">
         <f>SUMIF(K2:K9,"&lt;100")</f>
         <v>52</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="117">
         <v>52</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="117">
         <f>SUMIFS(H2:H9,K2:K9,"&lt;100")</f>
         <v>201</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="117">
         <v>201</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="117">
         <f>ROUND(TAN(PI()/4),5)</f>
         <v>1</v>
       </c>
-      <c r="C139" s="2">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2">
+      <c r="C139" s="117">
+        <v>1</v>
+      </c>
+      <c r="D139" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="117">
         <f>ROUND(TANH(1),5)</f>
         <v>0.76158999999999999</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="117">
         <v>0.76158999999999999</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="2" t="str">
+      <c r="B141" s="117" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"","1","A","%")</f>
         <v>1-A-%</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="B142" s="21">
+      <c r="B142" s="20">
         <f>TIME(9,11,31)</f>
         <v>0.38299768518518523</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="20">
         <v>0.38299768519999999</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="117">
         <f>TIMEVALUE("18:00:00")</f>
         <v>0.75</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="117">
         <v>0.75</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45538</v>
-      </c>
-      <c r="D144" s="2">
+        <v>45594</v>
+      </c>
+      <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="2" t="str">
+      <c r="B145" s="117" t="str">
         <f>TRIM(" Jean Ticonstitutionnalise ")</f>
         <v>Jean Ticonstitutionnalise</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="117">
         <f t="shared" ref="D145:D163" si="9">IF(B145=C145,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="117">
         <f>TRUNC(42.42,1)</f>
         <v>42.4</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="117">
         <v>42.4</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="B147" s="2" t="str">
+      <c r="B147" s="117" t="str">
         <f>UPPER("grrrr !")</f>
         <v>GRRRR !</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="117">
         <f>ROUND(VAR(K1:K5),5)</f>
         <v>2.9166699999999999</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="117">
         <v>2.9166699999999999</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="117">
         <f>ROUND(_xlfn.VAR.P(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="117">
         <v>2.1875</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="117">
         <f>_xlfn.VAR.S(2,5,8)</f>
         <v>9</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="117">
         <v>9</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="117">
         <f>ROUND(VARA(K1:K5),5)</f>
         <v>6.7</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="117">
         <v>6.7</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="117">
         <f>ROUND(VARP(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="117">
         <v>2.1875</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="117">
         <f>ROUND(VARPA(K1:K5),5)</f>
         <v>5.36</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="117">
         <v>5.36</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="117">
         <f>VLOOKUP("NotACheater",G1:K9,3,FALSE)</f>
         <v>252.4</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="117">
         <f>252.4</f>
         <v>252.4</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="117">
         <f>WEEKDAY("2021-06-12")</f>
         <v>7</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="117">
         <v>7</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="117">
         <f>WEEKNUM("2021-06-29")</f>
         <v>27</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="117">
         <v>27</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="B157" s="19">
+      <c r="B157" s="18">
         <f>WORKDAY("2021-03-15",6)</f>
         <v>44278</v>
       </c>
-      <c r="C157" s="19">
+      <c r="C157" s="18">
         <v>44278</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="B158" s="19">
+      <c r="B158" s="18">
         <f>WORKDAY.INTL("2021-03-15",6,"0111111")</f>
         <v>44312</v>
       </c>
-      <c r="C158" s="19">
+      <c r="C158" s="18">
         <v>44312</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="2" t="b">
+      <c r="B159" s="117" t="b">
         <f>_xlfn.XOR(FALSE,TRUE,FALSE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D159" s="2">
+      <c r="C159" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="117">
         <f>YEAR("2012-03-12")</f>
         <v>2012</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="117">
         <v>2012</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="117">
         <f>DELTA(1,1)</f>
         <v>1</v>
       </c>
-      <c r="C161" s="2">
-        <v>1</v>
-      </c>
-      <c r="D161" s="2">
+      <c r="C161" s="117">
+        <v>1</v>
+      </c>
+      <c r="D161" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="B162" s="2" t="str">
+      <c r="B162" s="117" t="str">
         <f>ADDRESS(1,1,4,FALSE,"sheet!")</f>
         <v>'sheet!'!R[1]C[1]</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="117">
         <f>DATEDIF("2002/01/01","2002/01/02","D")</f>
         <v>1</v>
       </c>
-      <c r="C163" s="2">
-        <v>1</v>
-      </c>
-      <c r="D163" s="2">
+      <c r="C163" s="117">
+        <v>1</v>
+      </c>
+      <c r="D163" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -11375,73 +11792,73 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" outlineLevel="1"/>
-    <col min="11" max="11" width="9.109375" outlineLevel="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" outlineLevel="1"/>
+    <col min="11" max="11" width="9.140625" outlineLevel="1" collapsed="1"/>
     <col min="12" max="14" width="0" hidden="1" outlineLevel="2"/>
-    <col min="15" max="18" width="9.109375" outlineLevel="1"/>
+    <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="110"/>
+      <c r="E1" s="123"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="86" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="85" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="17" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="18" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -11463,380 +11880,380 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="M2" s="95">
+      <c r="M2" s="94">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="M3" s="96">
+      <c r="M3" s="95">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="M4" s="97">
+      <c r="M4" s="96">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5" s="97">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="98">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="100">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="101">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="M9" s="103">
+      <c r="M9" s="102">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="76" t="s">
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>301</v>
       </c>
       <c r="F19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="77" t="s">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="103" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78" t="s">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="79" t="s">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="80" t="s">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="81" t="s">
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="68" t="s">
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="89" t="s">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="88" t="s">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
     </row>
@@ -11854,31 +12271,31 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
       <c r="B2">
@@ -11887,30 +12304,30 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>5</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="J2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>324</v>
       </c>
       <c r="H3">
@@ -11923,14 +12340,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>327</v>
       </c>
       <c r="H4">
@@ -11943,8 +12360,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
       <c r="B5" t="e">
@@ -11954,7 +12371,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>329</v>
       </c>
       <c r="H5">
@@ -11967,17 +12384,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>332</v>
       </c>
       <c r="H6">
@@ -11990,20 +12407,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>336</v>
       </c>
       <c r="H7">
@@ -12016,28 +12433,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
       <c r="B10">
@@ -12047,24 +12464,24 @@
         <f>0/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>343</v>
       </c>
       <c r="H11">
@@ -12077,19 +12494,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45538</v>
-      </c>
-      <c r="C12" s="40">
+        <v>45594</v>
+      </c>
+      <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
         <v>40453</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>345</v>
       </c>
       <c r="H12">
@@ -12102,8 +12519,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
       <c r="B13">
@@ -12112,7 +12529,7 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>347</v>
       </c>
       <c r="H13">
@@ -12125,20 +12542,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>349</v>
       </c>
       <c r="H14">
@@ -12151,14 +12568,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>351</v>
       </c>
       <c r="H15">
@@ -12171,8 +12588,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
       <c r="B16">
@@ -12181,7 +12598,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>353</v>
       </c>
       <c r="H16">
@@ -12194,8 +12611,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
       <c r="B17">
@@ -12204,7 +12621,7 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>355</v>
       </c>
       <c r="H17">
@@ -12217,8 +12634,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
       <c r="B18">
@@ -12227,7 +12644,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>357</v>
       </c>
       <c r="H18">
@@ -12240,8 +12657,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
       <c r="B19">
@@ -12250,7 +12667,7 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>359</v>
       </c>
       <c r="H19">
@@ -12263,8 +12680,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
       <c r="B20">
@@ -12273,7 +12690,7 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>361</v>
       </c>
       <c r="H20">
@@ -12286,8 +12703,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
       <c r="B21">
@@ -12296,7 +12713,7 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>363</v>
       </c>
       <c r="H21">
@@ -12312,8 +12729,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
       <c r="B22">
@@ -12322,7 +12739,7 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>365</v>
       </c>
       <c r="H22">
@@ -12338,8 +12755,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
       <c r="B23">
@@ -12348,7 +12765,7 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>367</v>
       </c>
       <c r="H23">
@@ -12364,8 +12781,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G24" s="35" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
       <c r="H24">
@@ -12381,8 +12798,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
       <c r="B25">
@@ -12391,7 +12808,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="34" t="s">
         <v>370</v>
       </c>
       <c r="H25">
@@ -12407,8 +12824,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G26" s="35" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
       <c r="H26">
@@ -12427,14 +12844,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>373</v>
       </c>
       <c r="H27">
@@ -12453,8 +12870,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G28" s="35" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
       <c r="H28">
@@ -12473,8 +12890,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G29" s="35" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
       <c r="H29">
@@ -12493,8 +12910,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G30" s="35" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
       <c r="H30">
@@ -12513,22 +12930,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="36" t="s">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <v>5</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>3</v>
       </c>
-      <c r="J31" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G32" s="35" t="s">
+      <c r="J31" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
       <c r="H32">
@@ -12541,8 +12958,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G33" s="35" t="s">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
       <c r="H33">
@@ -12555,8 +12972,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G34" s="35" t="s">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
       <c r="H34">
@@ -12569,8 +12986,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G35" s="35" t="s">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
       <c r="H35">
@@ -12583,8 +13000,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G36" s="35" t="s">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
       <c r="H36">
@@ -12597,8 +13014,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G37" s="35" t="s">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
       <c r="H37">
@@ -12611,8 +13028,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G39" s="35"/>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -13179,145 +13596,145 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="117">
         <v>26</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="117">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="117">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>31</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="117">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="117">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="117">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="117" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="117">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="117">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="117">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>20</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="117">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="117">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="117">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="117" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="117" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="117">
         <f>SUBTOTAL(109,Table3[Age])</f>
         <v>39</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="117">
         <f>SUBTOTAL(109,Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="117">
         <f>SUBTOTAL(109,Table3[Rank+Age =E4+D4])</f>
         <v>51</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="117">
         <f>SUBTOTAL(109,Table3[Data =SUM(E4:E5)])</f>
         <v>24</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="117">
         <f>SUBTOTAL(109,Table3[All =SUM(E3:E6)])</f>
         <v>48</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="117">
         <f>SUBTOTAL(109,Table3[Totals =E6])</f>
         <v>24</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="117">
         <f>SUBTOTAL(109,Table3[Headers =E3])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -13328,7 +13745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>3</v>
       </c>
@@ -13336,7 +13753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>393</v>
       </c>
@@ -13347,7 +13764,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
@@ -13355,7 +13772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>396</v>
       </c>
@@ -13366,7 +13783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>3</v>
       </c>
@@ -13374,7 +13791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>397</v>
       </c>
@@ -13385,7 +13802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>3</v>
       </c>
@@ -13393,7 +13810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>398</v>
       </c>
@@ -13404,7 +13821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>3</v>
       </c>
@@ -13412,7 +13829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>399</v>
       </c>
@@ -13423,7 +13840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>3</v>
       </c>
@@ -13431,7 +13848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>400</v>
       </c>
@@ -13442,7 +13859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>3</v>
       </c>
@@ -13450,7 +13867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -13459,7 +13876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>401</v>
       </c>
@@ -13470,7 +13887,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>404</v>
       </c>
@@ -13478,7 +13895,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>405</v>
       </c>
@@ -13486,7 +13903,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>406</v>
       </c>
@@ -13516,59 +13933,59 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="90" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="90" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="89" t="s">
         <v>410</v>
       </c>
       <c r="D4">
@@ -13599,10 +14016,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="91" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="90" t="s">
         <v>55</v>
       </c>
       <c r="K5">
@@ -13612,10 +14029,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="92">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="91">
         <v>256018</v>
       </c>
       <c r="K6">
@@ -13625,10 +14042,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="91" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="90" t="s">
         <v>46</v>
       </c>
       <c r="E7">
@@ -13638,10 +14055,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="92">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="91">
         <v>110120.5</v>
       </c>
       <c r="E8">
@@ -13651,10 +14068,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="91" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="90" t="s">
         <v>42</v>
       </c>
       <c r="G9">
@@ -13664,10 +14081,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="92">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="91">
         <v>25618</v>
       </c>
       <c r="G10">
@@ -13677,8 +14094,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="91" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
       <c r="F11">
@@ -13688,8 +14105,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="92">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="91">
         <v>23000</v>
       </c>
       <c r="F12">
@@ -13699,8 +14116,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="91" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
       <c r="D13">
@@ -13710,8 +14127,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="92">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="91">
         <v>2</v>
       </c>
       <c r="D14">
@@ -13721,8 +14138,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="91" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
       <c r="I15">
@@ -13732,8 +14149,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="92">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="91">
         <v>50024</v>
       </c>
       <c r="I16">
@@ -13743,8 +14160,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="91" t="s">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
       <c r="H17">
@@ -13754,8 +14171,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="92">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="91">
         <v>189576</v>
       </c>
       <c r="H18">
@@ -13765,8 +14182,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="91" t="s">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
       <c r="J19">
@@ -13776,8 +14193,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="92">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="91">
         <v>5000</v>
       </c>
       <c r="J20">
@@ -13787,8 +14204,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="91" t="s">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="90" t="s">
         <v>411</v>
       </c>
       <c r="D21">
@@ -13829,33 +14246,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.109375" customWidth="1"/>
-    <col min="2" max="26" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" customWidth="1"/>
+    <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="117"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -13874,10 +14291,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="99" t="s">
         <v>416</v>
       </c>
     </row>
